--- a/FFL_Data.xlsx
+++ b/FFL_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edenaxelrad/Desktop/FFL-Dash-main/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelrade\Downloads\FFL-Dash-2023-main\FFL-Dash-2023-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20176AC6-5A35-F047-98D8-596FF37C2978}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034AD357-EE8B-4E19-A119-ECF7C8D942B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="460" windowWidth="16680" windowHeight="15840" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
   </bookViews>
   <sheets>
     <sheet name="2023 Results" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="34">
   <si>
     <t>Points Against</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Team Icons/achane-modified.png</t>
+  </si>
+  <si>
+    <t>Week 5</t>
   </si>
 </sst>
 </file>
@@ -485,22 +488,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FD601-2028-0A4F-BA12-553C96356FC4}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="33.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -517,7 +520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -531,7 +534,7 @@
         <v>135.91999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -545,7 +548,7 @@
         <v>90.14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -559,7 +562,7 @@
         <v>84.7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -573,7 +576,7 @@
         <v>113.54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -587,7 +590,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -601,7 +604,7 @@
         <v>94.16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -615,7 +618,7 @@
         <v>102.14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -629,7 +632,7 @@
         <v>90.04</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -643,7 +646,7 @@
         <v>82.76</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -657,7 +660,7 @@
         <v>84.64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -671,7 +674,7 @@
         <v>88.48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -685,7 +688,7 @@
         <v>89.96</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -699,7 +702,7 @@
         <v>88.06</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -713,7 +716,7 @@
         <v>84.8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -727,7 +730,7 @@
         <v>119.94</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -741,7 +744,7 @@
         <v>113.88</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -755,7 +758,7 @@
         <v>107.34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -769,7 +772,7 @@
         <v>118.64</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -783,7 +786,7 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -797,7 +800,7 @@
         <v>123.72</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -811,7 +814,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -825,7 +828,7 @@
         <v>77.180000000000007</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -839,7 +842,7 @@
         <v>94.76</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -853,7 +856,7 @@
         <v>65.099999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -867,7 +870,7 @@
         <v>140.78</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -881,7 +884,7 @@
         <v>135.96</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -895,7 +898,7 @@
         <v>88.7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -909,7 +912,7 @@
         <v>143.66</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -923,7 +926,7 @@
         <v>123.46</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -937,7 +940,7 @@
         <v>117.08</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -951,7 +954,7 @@
         <v>113.66</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -965,7 +968,7 @@
         <v>110.92</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -979,7 +982,7 @@
         <v>62.66</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -993,7 +996,7 @@
         <v>109.08</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1007,7 +1010,7 @@
         <v>112.98</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1021,7 +1024,7 @@
         <v>137.16</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -1034,11 +1037,8 @@
       <c r="D38" s="1">
         <v>139.04</v>
       </c>
-      <c r="E38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1051,11 +1051,8 @@
       <c r="D39" s="1">
         <v>82.92</v>
       </c>
-      <c r="E39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -1068,11 +1065,8 @@
       <c r="D40" s="1">
         <v>90.64</v>
       </c>
-      <c r="E40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -1085,11 +1079,8 @@
       <c r="D41" s="1">
         <v>133.30000000000001</v>
       </c>
-      <c r="E41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -1102,11 +1093,8 @@
       <c r="D42" s="1">
         <v>123.96</v>
       </c>
-      <c r="E42" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -1119,11 +1107,8 @@
       <c r="D43" s="1">
         <v>112.26</v>
       </c>
-      <c r="E43" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -1136,11 +1121,8 @@
       <c r="D44" s="1">
         <v>119.5</v>
       </c>
-      <c r="E44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -1153,11 +1135,8 @@
       <c r="D45" s="1">
         <v>99.24</v>
       </c>
-      <c r="E45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -1170,11 +1149,8 @@
       <c r="D46" s="1">
         <v>87.48</v>
       </c>
-      <c r="E46" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -1187,11 +1163,8 @@
       <c r="D47" s="1">
         <v>107.44</v>
       </c>
-      <c r="E47" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -1204,11 +1177,8 @@
       <c r="D48" s="1">
         <v>103.42</v>
       </c>
-      <c r="E48" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -1221,12 +1191,213 @@
       <c r="D49" s="1">
         <v>84.36</v>
       </c>
-      <c r="E49" t="s">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="1">
+        <v>111.28</v>
+      </c>
+      <c r="D50" s="1">
+        <v>106.88</v>
+      </c>
+      <c r="E50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="1">
+        <v>79.38</v>
+      </c>
+      <c r="D51" s="1">
+        <v>115.72</v>
+      </c>
+      <c r="E51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="1">
+        <v>88.22</v>
+      </c>
+      <c r="D52" s="1">
+        <v>70.22</v>
+      </c>
+      <c r="E52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="1">
+        <v>115.72</v>
+      </c>
+      <c r="D53" s="1">
+        <v>79.38</v>
+      </c>
+      <c r="E53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="1">
+        <v>63.82</v>
+      </c>
+      <c r="D54" s="1">
+        <v>144.34</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="1">
+        <v>114.36</v>
+      </c>
+      <c r="D55" s="1">
+        <v>108.34</v>
+      </c>
+      <c r="E55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="1">
+        <v>110.14</v>
+      </c>
+      <c r="D56" s="1">
+        <v>110.46</v>
+      </c>
+      <c r="E56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="1">
+        <v>110.46</v>
+      </c>
+      <c r="D57" s="1">
+        <v>110.14</v>
+      </c>
+      <c r="E57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="1">
+        <v>106.88</v>
+      </c>
+      <c r="D58" s="1">
+        <v>111.28</v>
+      </c>
+      <c r="E58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="1">
+        <v>144.34</v>
+      </c>
+      <c r="D59" s="1">
+        <v>63.82</v>
+      </c>
+      <c r="E59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="1">
+        <v>70.22</v>
+      </c>
+      <c r="D60" s="1">
+        <v>88.22</v>
+      </c>
+      <c r="E60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="1">
+        <v>108.34</v>
+      </c>
+      <c r="D61" s="1">
+        <v>114.36</v>
+      </c>
+      <c r="E61" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A13">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/FFL_Data.xlsx
+++ b/FFL_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelrade\Downloads\FFL-Dash-2023-main\FFL-Dash-2023-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034AD357-EE8B-4E19-A119-ECF7C8D942B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1634F0-7CC7-48DC-B465-56ABA0711D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="35">
   <si>
     <t>Points Against</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
   </si>
 </sst>
 </file>
@@ -488,22 +491,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FD601-2028-0A4F-BA12-553C96356FC4}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.1796875" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -520,7 +523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -534,7 +537,7 @@
         <v>135.91999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -548,7 +551,7 @@
         <v>90.14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -562,7 +565,7 @@
         <v>84.7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -576,7 +579,7 @@
         <v>113.54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -590,7 +593,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -604,7 +607,7 @@
         <v>94.16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -618,7 +621,7 @@
         <v>102.14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -632,7 +635,7 @@
         <v>90.04</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -646,7 +649,7 @@
         <v>82.76</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -660,7 +663,7 @@
         <v>84.64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -674,7 +677,7 @@
         <v>88.48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -688,7 +691,7 @@
         <v>89.96</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -702,7 +705,7 @@
         <v>88.06</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -716,7 +719,7 @@
         <v>84.8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -730,7 +733,7 @@
         <v>119.94</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -744,7 +747,7 @@
         <v>113.88</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -758,7 +761,7 @@
         <v>107.34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -772,7 +775,7 @@
         <v>118.64</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -786,7 +789,7 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -800,7 +803,7 @@
         <v>123.72</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -814,7 +817,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -828,7 +831,7 @@
         <v>77.180000000000007</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -842,7 +845,7 @@
         <v>94.76</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -856,7 +859,7 @@
         <v>65.099999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -870,7 +873,7 @@
         <v>140.78</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -884,7 +887,7 @@
         <v>135.96</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -898,7 +901,7 @@
         <v>88.7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -912,7 +915,7 @@
         <v>143.66</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -926,7 +929,7 @@
         <v>123.46</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -940,7 +943,7 @@
         <v>117.08</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -954,7 +957,7 @@
         <v>113.66</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -968,7 +971,7 @@
         <v>110.92</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -982,7 +985,7 @@
         <v>62.66</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -996,7 +999,7 @@
         <v>109.08</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1010,7 +1013,7 @@
         <v>112.98</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1024,7 +1027,7 @@
         <v>137.16</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -1038,7 +1041,7 @@
         <v>139.04</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1052,7 +1055,7 @@
         <v>82.92</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -1066,7 +1069,7 @@
         <v>90.64</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -1080,7 +1083,7 @@
         <v>133.30000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -1094,7 +1097,7 @@
         <v>123.96</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -1108,7 +1111,7 @@
         <v>112.26</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -1122,7 +1125,7 @@
         <v>119.5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v>99.24</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -1150,7 +1153,7 @@
         <v>87.48</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -1164,7 +1167,7 @@
         <v>107.44</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -1178,7 +1181,7 @@
         <v>103.42</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -1192,7 +1195,7 @@
         <v>84.36</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -1205,11 +1208,8 @@
       <c r="D50" s="1">
         <v>106.88</v>
       </c>
-      <c r="E50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1222,11 +1222,8 @@
       <c r="D51" s="1">
         <v>115.72</v>
       </c>
-      <c r="E51" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -1239,11 +1236,8 @@
       <c r="D52" s="1">
         <v>70.22</v>
       </c>
-      <c r="E52" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -1256,11 +1250,8 @@
       <c r="D53" s="1">
         <v>79.38</v>
       </c>
-      <c r="E53" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -1273,11 +1264,8 @@
       <c r="D54" s="1">
         <v>144.34</v>
       </c>
-      <c r="E54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -1290,11 +1278,8 @@
       <c r="D55" s="1">
         <v>108.34</v>
       </c>
-      <c r="E55" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -1307,11 +1292,8 @@
       <c r="D56" s="1">
         <v>110.46</v>
       </c>
-      <c r="E56" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -1324,11 +1306,8 @@
       <c r="D57" s="1">
         <v>110.14</v>
       </c>
-      <c r="E57" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -1341,11 +1320,8 @@
       <c r="D58" s="1">
         <v>111.28</v>
       </c>
-      <c r="E58" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -1358,11 +1334,8 @@
       <c r="D59" s="1">
         <v>63.82</v>
       </c>
-      <c r="E59" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -1375,11 +1348,8 @@
       <c r="D60" s="1">
         <v>88.22</v>
       </c>
-      <c r="E60" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -1392,7 +1362,208 @@
       <c r="D61" s="1">
         <v>114.36</v>
       </c>
-      <c r="E61" t="s">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="1">
+        <v>85.2</v>
+      </c>
+      <c r="D62" s="1">
+        <v>99.86</v>
+      </c>
+      <c r="E62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="1">
+        <v>92.34</v>
+      </c>
+      <c r="D63" s="1">
+        <v>107.68</v>
+      </c>
+      <c r="E63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="1">
+        <v>98.78</v>
+      </c>
+      <c r="D64" s="1">
+        <v>97.5</v>
+      </c>
+      <c r="E64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="1">
+        <v>88.1</v>
+      </c>
+      <c r="D65" s="1">
+        <v>86.42</v>
+      </c>
+      <c r="E65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="1">
+        <v>109.08</v>
+      </c>
+      <c r="D66" s="1">
+        <v>110.82</v>
+      </c>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="1">
+        <v>98.26</v>
+      </c>
+      <c r="D67" s="1">
+        <v>131.04</v>
+      </c>
+      <c r="E67" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" s="1">
+        <v>131.04</v>
+      </c>
+      <c r="D68" s="1">
+        <v>98.26</v>
+      </c>
+      <c r="E68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="1">
+        <v>97.5</v>
+      </c>
+      <c r="D69" s="1">
+        <v>98.78</v>
+      </c>
+      <c r="E69" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="1">
+        <v>107.68</v>
+      </c>
+      <c r="D70" s="1">
+        <v>92.34</v>
+      </c>
+      <c r="E70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="1">
+        <v>99.86</v>
+      </c>
+      <c r="D71" s="1">
+        <v>85.2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="1">
+        <v>110.82</v>
+      </c>
+      <c r="D72" s="1">
+        <v>109.08</v>
+      </c>
+      <c r="E72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="1">
+        <v>86.42</v>
+      </c>
+      <c r="D73" s="1">
+        <v>88.1</v>
+      </c>
+      <c r="E73" t="s">
         <v>32</v>
       </c>
     </row>

--- a/FFL_Data.xlsx
+++ b/FFL_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelrade\Downloads\FFL-Dash-2023-main\FFL-Dash-2023-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1634F0-7CC7-48DC-B465-56ABA0711D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50004792-76CA-43EC-819D-B4166724C0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
+    <workbookView xWindow="720" yWindow="1170" windowWidth="19380" windowHeight="12225" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
   </bookViews>
   <sheets>
     <sheet name="2023 Results" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="37">
   <si>
     <t>Points Against</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Muad'dib</t>
   </si>
   <si>
-    <t>JeRick Rolled</t>
-  </si>
-  <si>
     <t>Gambling on Ridley</t>
   </si>
   <si>
@@ -133,6 +130,15 @@
   </si>
   <si>
     <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Ford v Amari</t>
   </si>
 </sst>
 </file>
@@ -491,11 +497,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FD601-2028-0A4F-BA12-553C96356FC4}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +531,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -553,7 +559,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -567,7 +573,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -581,7 +587,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -595,7 +601,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -623,7 +629,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -693,7 +699,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -721,7 +727,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -735,7 +741,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -749,7 +755,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -763,7 +769,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -791,7 +797,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -861,7 +867,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -889,7 +895,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -903,7 +909,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -917,7 +923,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -931,7 +937,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -959,7 +965,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
@@ -1029,7 +1035,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
@@ -1057,7 +1063,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
@@ -1071,7 +1077,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
@@ -1085,7 +1091,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
@@ -1099,7 +1105,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
@@ -1127,7 +1133,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
@@ -1181,7 +1187,7 @@
         <v>103.42</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -1195,12 +1201,12 @@
         <v>84.36</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C50" s="1">
         <v>111.28</v>
@@ -1209,12 +1215,12 @@
         <v>106.88</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C51" s="1">
         <v>79.38</v>
@@ -1223,12 +1229,12 @@
         <v>115.72</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C52" s="1">
         <v>88.22</v>
@@ -1237,12 +1243,12 @@
         <v>70.22</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C53" s="1">
         <v>115.72</v>
@@ -1251,12 +1257,12 @@
         <v>79.38</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C54" s="1">
         <v>63.82</v>
@@ -1265,12 +1271,12 @@
         <v>144.34</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C55" s="1">
         <v>114.36</v>
@@ -1279,12 +1285,12 @@
         <v>108.34</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C56" s="1">
         <v>110.14</v>
@@ -1293,12 +1299,12 @@
         <v>110.46</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C57" s="1">
         <v>110.46</v>
@@ -1307,12 +1313,12 @@
         <v>110.14</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C58" s="1">
         <v>106.88</v>
@@ -1321,12 +1327,12 @@
         <v>111.28</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C59" s="1">
         <v>144.34</v>
@@ -1335,12 +1341,12 @@
         <v>63.82</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C60" s="1">
         <v>70.22</v>
@@ -1349,12 +1355,12 @@
         <v>88.22</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C61" s="1">
         <v>108.34</v>
@@ -1363,12 +1369,12 @@
         <v>114.36</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C62" s="1">
         <v>85.2</v>
@@ -1376,16 +1382,13 @@
       <c r="D62" s="1">
         <v>99.86</v>
       </c>
-      <c r="E62" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C63" s="1">
         <v>92.34</v>
@@ -1393,16 +1396,13 @@
       <c r="D63" s="1">
         <v>107.68</v>
       </c>
-      <c r="E63" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C64" s="1">
         <v>98.78</v>
@@ -1410,16 +1410,13 @@
       <c r="D64" s="1">
         <v>97.5</v>
       </c>
-      <c r="E64" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C65" s="1">
         <v>88.1</v>
@@ -1427,16 +1424,13 @@
       <c r="D65" s="1">
         <v>86.42</v>
       </c>
-      <c r="E65" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C66" s="1">
         <v>109.08</v>
@@ -1444,16 +1438,13 @@
       <c r="D66" s="1">
         <v>110.82</v>
       </c>
-      <c r="E66" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C67" s="1">
         <v>98.26</v>
@@ -1461,16 +1452,13 @@
       <c r="D67" s="1">
         <v>131.04</v>
       </c>
-      <c r="E67" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C68" s="1">
         <v>131.04</v>
@@ -1478,16 +1466,13 @@
       <c r="D68" s="1">
         <v>98.26</v>
       </c>
-      <c r="E68" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C69" s="1">
         <v>97.5</v>
@@ -1495,16 +1480,13 @@
       <c r="D69" s="1">
         <v>98.78</v>
       </c>
-      <c r="E69" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C70" s="1">
         <v>107.68</v>
@@ -1512,16 +1494,13 @@
       <c r="D70" s="1">
         <v>92.34</v>
       </c>
-      <c r="E70" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C71" s="1">
         <v>99.86</v>
@@ -1529,16 +1508,13 @@
       <c r="D71" s="1">
         <v>85.2</v>
       </c>
-      <c r="E71" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C72" s="1">
         <v>110.82</v>
@@ -1546,16 +1522,13 @@
       <c r="D72" s="1">
         <v>109.08</v>
       </c>
-      <c r="E72" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C73" s="1">
         <v>86.42</v>
@@ -1563,8 +1536,377 @@
       <c r="D73" s="1">
         <v>88.1</v>
       </c>
-      <c r="E73" t="s">
-        <v>32</v>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" s="1">
+        <v>77.58</v>
+      </c>
+      <c r="D74" s="1">
+        <v>129.84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="1">
+        <v>104.4</v>
+      </c>
+      <c r="D75" s="1">
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" s="1">
+        <v>69</v>
+      </c>
+      <c r="D76" s="1">
+        <v>137.19999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" s="1">
+        <v>98.06</v>
+      </c>
+      <c r="D77" s="1">
+        <v>75.16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" s="1">
+        <v>84.24</v>
+      </c>
+      <c r="D78" s="1">
+        <v>148.41999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" s="1">
+        <v>137.19999999999999</v>
+      </c>
+      <c r="D79" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" s="1">
+        <v>119.56</v>
+      </c>
+      <c r="D80" s="1">
+        <v>80.58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" s="1">
+        <v>148.41999999999999</v>
+      </c>
+      <c r="D81" s="1">
+        <v>84.24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82" s="1">
+        <v>75.16</v>
+      </c>
+      <c r="D82" s="1">
+        <v>98.06</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" s="1">
+        <v>85.2</v>
+      </c>
+      <c r="D83" s="1">
+        <v>104.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84" s="1">
+        <v>129.84</v>
+      </c>
+      <c r="D84" s="1">
+        <v>77.58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" s="1">
+        <v>80.58</v>
+      </c>
+      <c r="D85" s="1">
+        <v>119.56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" s="1">
+        <v>100.2</v>
+      </c>
+      <c r="D86" s="1">
+        <v>119.22</v>
+      </c>
+      <c r="E86" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87" s="1">
+        <v>130.58000000000001</v>
+      </c>
+      <c r="D87" s="1">
+        <v>116.9</v>
+      </c>
+      <c r="E87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" s="1">
+        <v>109.06</v>
+      </c>
+      <c r="D88" s="1">
+        <v>101.48</v>
+      </c>
+      <c r="E88" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" s="1">
+        <v>113.66</v>
+      </c>
+      <c r="D89" s="1">
+        <v>99.34</v>
+      </c>
+      <c r="E89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>19</v>
+      </c>
+      <c r="B90" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" s="1">
+        <v>96.96</v>
+      </c>
+      <c r="D90" s="1">
+        <v>158.36000000000001</v>
+      </c>
+      <c r="E90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>36</v>
+      </c>
+      <c r="B91" t="s">
+        <v>35</v>
+      </c>
+      <c r="C91" s="1">
+        <v>158.36000000000001</v>
+      </c>
+      <c r="D91" s="1">
+        <v>96.96</v>
+      </c>
+      <c r="E91" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92" s="1">
+        <v>99.34</v>
+      </c>
+      <c r="D92" s="1">
+        <v>113.66</v>
+      </c>
+      <c r="E92" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" t="s">
+        <v>35</v>
+      </c>
+      <c r="C93" s="1">
+        <v>119.22</v>
+      </c>
+      <c r="D93" s="1">
+        <v>100.2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" t="s">
+        <v>35</v>
+      </c>
+      <c r="C94" s="1">
+        <v>111.42</v>
+      </c>
+      <c r="D94" s="1">
+        <v>99.7</v>
+      </c>
+      <c r="E94" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95" s="1">
+        <v>99.7</v>
+      </c>
+      <c r="D95" s="1">
+        <v>111.42</v>
+      </c>
+      <c r="E95" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
+        <v>35</v>
+      </c>
+      <c r="C96" s="1">
+        <v>116.9</v>
+      </c>
+      <c r="D96" s="1">
+        <v>130.58000000000001</v>
+      </c>
+      <c r="E96" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" t="s">
+        <v>35</v>
+      </c>
+      <c r="C97" s="1">
+        <v>101.48</v>
+      </c>
+      <c r="D97" s="1">
+        <v>109.06</v>
+      </c>
+      <c r="E97" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/FFL_Data.xlsx
+++ b/FFL_Data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelrade\Downloads\FFL-Dash-2023-main\FFL-Dash-2023-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edenaxelrad/Desktop/FFL-Dash-2023-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50004792-76CA-43EC-819D-B4166724C0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A785431E-9F47-644E-A0D1-2A5A183934D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1170" windowWidth="19380" windowHeight="12225" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
   </bookViews>
   <sheets>
     <sheet name="2023 Results" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2023 Results'!$A$41:$B$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2023 Results'!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -105,9 +105,6 @@
     <t>Team Icons/brothers-modified.png</t>
   </si>
   <si>
-    <t>Team Icons/jerick-modified.png</t>
-  </si>
-  <si>
     <t>Team Icons/kelce-modified.png</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>Ford v Amari</t>
+  </si>
+  <si>
+    <t>Team Icons/ford-modified.png</t>
   </si>
 </sst>
 </file>
@@ -500,19 +500,19 @@
   <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G84" sqref="G84"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A92" sqref="A92:XFD92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -529,7 +529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -543,7 +543,7 @@
         <v>135.91999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -557,63 +557,63 @@
         <v>90.14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>135.91999999999999</v>
+        <v>84.64</v>
       </c>
       <c r="D4">
-        <v>84.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>94.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>90.2</v>
+        <v>135.91999999999999</v>
       </c>
       <c r="D5">
-        <v>113.54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6">
+        <v>90.2</v>
+      </c>
+      <c r="D6">
         <v>113.54</v>
       </c>
-      <c r="D6">
-        <v>90.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>84.64</v>
+        <v>113.54</v>
       </c>
       <c r="D7">
-        <v>94.16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -627,7 +627,7 @@
         <v>102.14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -641,7 +641,7 @@
         <v>90.04</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -655,7 +655,7 @@
         <v>82.76</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -669,7 +669,7 @@
         <v>84.64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -683,7 +683,7 @@
         <v>88.48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -697,7 +697,7 @@
         <v>89.96</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -711,7 +711,7 @@
         <v>88.06</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -725,63 +725,63 @@
         <v>84.8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16">
-        <v>84.8</v>
+        <v>94.76</v>
       </c>
       <c r="D16">
-        <v>119.94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118.64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>123.72</v>
+        <v>84.8</v>
       </c>
       <c r="D17">
-        <v>113.88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119.94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18">
-        <v>88.06</v>
+        <v>123.72</v>
       </c>
       <c r="D18">
-        <v>107.34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113.88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19">
-        <v>94.76</v>
+        <v>88.06</v>
       </c>
       <c r="D19">
-        <v>118.64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>107.34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -795,7 +795,7 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -809,7 +809,7 @@
         <v>123.72</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -823,7 +823,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -837,7 +837,7 @@
         <v>77.180000000000007</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -851,7 +851,7 @@
         <v>94.76</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -865,7 +865,7 @@
         <v>65.099999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -879,7 +879,7 @@
         <v>140.78</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -893,63 +893,63 @@
         <v>135.96</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="1">
-        <v>62.66</v>
+      <c r="C28">
+        <v>110.92</v>
       </c>
       <c r="D28" s="1">
-        <v>88.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117.08</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="C29">
-        <v>140.78</v>
-      </c>
-      <c r="D29">
-        <v>143.66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <v>62.66</v>
+      </c>
+      <c r="D29" s="1">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30">
-        <v>135.96</v>
-      </c>
-      <c r="D30" s="1">
-        <v>123.46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140.78</v>
+      </c>
+      <c r="D30">
+        <v>143.66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31">
-        <v>110.92</v>
+        <v>135.96</v>
       </c>
       <c r="D31" s="1">
-        <v>117.08</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>123.46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -963,7 +963,7 @@
         <v>113.66</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -977,7 +977,7 @@
         <v>110.92</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -991,7 +991,7 @@
         <v>62.66</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>109.08</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>112.98</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>137.16</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>139.04</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1061,63 +1061,63 @@
         <v>82.92</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="1">
-        <v>107.44</v>
+        <v>133.30000000000001</v>
       </c>
       <c r="D40" s="1">
-        <v>90.64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>112.26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="1">
-        <v>112.26</v>
+        <v>107.44</v>
       </c>
       <c r="D41" s="1">
-        <v>133.30000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90.64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="1">
-        <v>87.48</v>
+        <v>112.26</v>
       </c>
       <c r="D42" s="1">
-        <v>123.96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>133.30000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="1">
-        <v>133.30000000000001</v>
+        <v>87.48</v>
       </c>
       <c r="D43" s="1">
-        <v>112.26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>123.96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>119.5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>99.24</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>87.48</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>107.44</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>103.42</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -1201,12 +1201,12 @@
         <v>84.36</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50" s="1">
         <v>111.28</v>
@@ -1215,12 +1215,12 @@
         <v>106.88</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" s="1">
         <v>79.38</v>
@@ -1229,68 +1229,68 @@
         <v>115.72</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="1">
+        <v>114.36</v>
+      </c>
+      <c r="D52" s="1">
+        <v>108.34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>15</v>
       </c>
-      <c r="B52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C52" s="1">
+      <c r="B53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="1">
         <v>88.22</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D53" s="1">
         <v>70.22</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>16</v>
       </c>
-      <c r="B53" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" s="1">
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="1">
         <v>115.72</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D54" s="1">
         <v>79.38</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>19</v>
       </c>
-      <c r="B54" t="s">
-        <v>32</v>
-      </c>
-      <c r="C54" s="1">
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="1">
         <v>63.82</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D55" s="1">
         <v>144.34</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" s="1">
-        <v>114.36</v>
-      </c>
-      <c r="D55" s="1">
-        <v>108.34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C56" s="1">
         <v>110.14</v>
@@ -1299,12 +1299,12 @@
         <v>110.46</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C57" s="1">
         <v>110.46</v>
@@ -1313,12 +1313,12 @@
         <v>110.14</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C58" s="1">
         <v>106.88</v>
@@ -1327,12 +1327,12 @@
         <v>111.28</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C59" s="1">
         <v>144.34</v>
@@ -1341,12 +1341,12 @@
         <v>63.82</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C60" s="1">
         <v>70.22</v>
@@ -1355,12 +1355,12 @@
         <v>88.22</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C61" s="1">
         <v>108.34</v>
@@ -1369,12 +1369,12 @@
         <v>114.36</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>18</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C62" s="1">
         <v>85.2</v>
@@ -1383,12 +1383,12 @@
         <v>99.86</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C63" s="1">
         <v>92.34</v>
@@ -1397,68 +1397,68 @@
         <v>107.68</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="1">
+        <v>98.26</v>
+      </c>
+      <c r="D64" s="1">
+        <v>131.04</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>15</v>
       </c>
-      <c r="B64" t="s">
-        <v>33</v>
-      </c>
-      <c r="C64" s="1">
+      <c r="B65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="1">
         <v>98.78</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D65" s="1">
         <v>97.5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>16</v>
       </c>
-      <c r="B65" t="s">
-        <v>33</v>
-      </c>
-      <c r="C65" s="1">
+      <c r="B66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="1">
         <v>88.1</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D66" s="1">
         <v>86.42</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>19</v>
       </c>
-      <c r="B66" t="s">
-        <v>33</v>
-      </c>
-      <c r="C66" s="1">
+      <c r="B67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="1">
         <v>109.08</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D67" s="1">
         <v>110.82</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>36</v>
-      </c>
-      <c r="B67" t="s">
-        <v>33</v>
-      </c>
-      <c r="C67" s="1">
-        <v>98.26</v>
-      </c>
-      <c r="D67" s="1">
-        <v>131.04</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C68" s="1">
         <v>131.04</v>
@@ -1467,12 +1467,12 @@
         <v>98.26</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C69" s="1">
         <v>97.5</v>
@@ -1481,12 +1481,12 @@
         <v>98.78</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C70" s="1">
         <v>107.68</v>
@@ -1495,12 +1495,12 @@
         <v>92.34</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C71" s="1">
         <v>99.86</v>
@@ -1509,12 +1509,12 @@
         <v>85.2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C72" s="1">
         <v>110.82</v>
@@ -1523,12 +1523,12 @@
         <v>109.08</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C73" s="1">
         <v>86.42</v>
@@ -1537,12 +1537,12 @@
         <v>88.1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>18</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C74" s="1">
         <v>77.58</v>
@@ -1551,12 +1551,12 @@
         <v>129.84</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C75" s="1">
         <v>104.4</v>
@@ -1565,68 +1565,68 @@
         <v>85.2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" s="1">
+        <v>137.19999999999999</v>
+      </c>
+      <c r="D76" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>15</v>
       </c>
-      <c r="B76" t="s">
-        <v>34</v>
-      </c>
-      <c r="C76" s="1">
+      <c r="B77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" s="1">
         <v>69</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D77" s="1">
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>16</v>
       </c>
-      <c r="B77" t="s">
-        <v>34</v>
-      </c>
-      <c r="C77" s="1">
+      <c r="B78" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="1">
         <v>98.06</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D78" s="1">
         <v>75.16</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>19</v>
       </c>
-      <c r="B78" t="s">
-        <v>34</v>
-      </c>
-      <c r="C78" s="1">
+      <c r="B79" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" s="1">
         <v>84.24</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D79" s="1">
         <v>148.41999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>36</v>
-      </c>
-      <c r="B79" t="s">
-        <v>34</v>
-      </c>
-      <c r="C79" s="1">
-        <v>137.19999999999999</v>
-      </c>
-      <c r="D79" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C80" s="1">
         <v>119.56</v>
@@ -1635,12 +1635,12 @@
         <v>80.58</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C81" s="1">
         <v>148.41999999999999</v>
@@ -1649,12 +1649,12 @@
         <v>84.24</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C82" s="1">
         <v>75.16</v>
@@ -1663,12 +1663,12 @@
         <v>98.06</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C83" s="1">
         <v>85.2</v>
@@ -1677,12 +1677,12 @@
         <v>104.4</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C84" s="1">
         <v>129.84</v>
@@ -1691,12 +1691,12 @@
         <v>77.58</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C85" s="1">
         <v>80.58</v>
@@ -1705,12 +1705,12 @@
         <v>119.56</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>18</v>
       </c>
       <c r="B86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C86" s="1">
         <v>100.2</v>
@@ -1722,12 +1722,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>4</v>
       </c>
       <c r="B87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C87" s="1">
         <v>130.58000000000001</v>
@@ -1739,80 +1739,80 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" s="1">
+        <v>158.36000000000001</v>
+      </c>
+      <c r="D88" s="1">
+        <v>96.96</v>
+      </c>
+      <c r="E88" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>15</v>
       </c>
-      <c r="B88" t="s">
-        <v>35</v>
-      </c>
-      <c r="C88" s="1">
+      <c r="B89" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89" s="1">
         <v>109.06</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D89" s="1">
         <v>101.48</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E89" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>16</v>
       </c>
-      <c r="B89" t="s">
-        <v>35</v>
-      </c>
-      <c r="C89" s="1">
+      <c r="B90" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" s="1">
         <v>113.66</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D90" s="1">
         <v>99.34</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E90" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>19</v>
       </c>
-      <c r="B90" t="s">
-        <v>35</v>
-      </c>
-      <c r="C90" s="1">
+      <c r="B91" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91" s="1">
         <v>96.96</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D91" s="1">
         <v>158.36000000000001</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E91" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>36</v>
-      </c>
-      <c r="B91" t="s">
-        <v>35</v>
-      </c>
-      <c r="C91" s="1">
-        <v>158.36000000000001</v>
-      </c>
-      <c r="D91" s="1">
-        <v>96.96</v>
-      </c>
-      <c r="E91" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C92" s="1">
         <v>99.34</v>
@@ -1821,15 +1821,15 @@
         <v>113.66</v>
       </c>
       <c r="E92" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>17</v>
       </c>
       <c r="B93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C93" s="1">
         <v>119.22</v>
@@ -1838,15 +1838,15 @@
         <v>100.2</v>
       </c>
       <c r="E93" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>13</v>
       </c>
       <c r="B94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C94" s="1">
         <v>111.42</v>
@@ -1855,15 +1855,15 @@
         <v>99.7</v>
       </c>
       <c r="E94" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>14</v>
       </c>
       <c r="B95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C95" s="1">
         <v>99.7</v>
@@ -1872,15 +1872,15 @@
         <v>111.42</v>
       </c>
       <c r="E95" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C96" s="1">
         <v>116.9</v>
@@ -1889,15 +1889,15 @@
         <v>130.58000000000001</v>
       </c>
       <c r="E96" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C97" s="1">
         <v>101.48</v>
@@ -1906,11 +1906,11 @@
         <v>109.06</v>
       </c>
       <c r="E97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A13">
+  <sortState ref="A2:A13">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/FFL_Data.xlsx
+++ b/FFL_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edenaxelrad/Desktop/FFL-Dash-2023-main/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelrade\Downloads\FFL-Dash-2023-main\FFL-Dash-2023-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A785431E-9F47-644E-A0D1-2A5A183934D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6586FA-B336-41CE-85B0-1A33398E47AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
   </bookViews>
   <sheets>
     <sheet name="2023 Results" sheetId="2" r:id="rId1"/>
@@ -18,17 +18,26 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2023 Results'!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="38">
   <si>
     <t>Points Against</t>
   </si>
@@ -139,6 +148,9 @@
   </si>
   <si>
     <t>Team Icons/ford-modified.png</t>
+  </si>
+  <si>
+    <t>Week 9</t>
   </si>
 </sst>
 </file>
@@ -497,22 +509,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FD601-2028-0A4F-BA12-553C96356FC4}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A92" sqref="A92:XFD92"/>
+      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="33.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -529,7 +541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -543,7 +555,7 @@
         <v>135.91999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -557,7 +569,7 @@
         <v>90.14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -571,7 +583,7 @@
         <v>94.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -585,7 +597,7 @@
         <v>84.7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -599,7 +611,7 @@
         <v>113.54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -613,7 +625,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -627,7 +639,7 @@
         <v>102.14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -641,7 +653,7 @@
         <v>90.04</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -655,7 +667,7 @@
         <v>82.76</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -669,7 +681,7 @@
         <v>84.64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -683,7 +695,7 @@
         <v>88.48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -697,7 +709,7 @@
         <v>89.96</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -711,7 +723,7 @@
         <v>88.06</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -725,7 +737,7 @@
         <v>84.8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -739,7 +751,7 @@
         <v>118.64</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -753,7 +765,7 @@
         <v>119.94</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -767,7 +779,7 @@
         <v>113.88</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -781,7 +793,7 @@
         <v>107.34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -795,7 +807,7 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -809,7 +821,7 @@
         <v>123.72</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -823,7 +835,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -837,7 +849,7 @@
         <v>77.180000000000007</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -851,7 +863,7 @@
         <v>94.76</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -865,7 +877,7 @@
         <v>65.099999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -879,7 +891,7 @@
         <v>140.78</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -893,7 +905,7 @@
         <v>135.96</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -907,7 +919,7 @@
         <v>117.08</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -921,7 +933,7 @@
         <v>88.7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -935,7 +947,7 @@
         <v>143.66</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -949,7 +961,7 @@
         <v>123.46</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -963,7 +975,7 @@
         <v>113.66</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -977,7 +989,7 @@
         <v>110.92</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -991,7 +1003,7 @@
         <v>62.66</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1005,7 +1017,7 @@
         <v>109.08</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1019,7 +1031,7 @@
         <v>112.98</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1033,7 +1045,7 @@
         <v>137.16</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -1047,7 +1059,7 @@
         <v>139.04</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1061,7 +1073,7 @@
         <v>82.92</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -1075,7 +1087,7 @@
         <v>112.26</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -1089,7 +1101,7 @@
         <v>90.64</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -1103,7 +1115,7 @@
         <v>133.30000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1117,7 +1129,7 @@
         <v>123.96</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -1131,7 +1143,7 @@
         <v>119.5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1145,7 +1157,7 @@
         <v>99.24</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -1159,7 +1171,7 @@
         <v>87.48</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -1173,7 +1185,7 @@
         <v>107.44</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -1187,7 +1199,7 @@
         <v>103.42</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -1201,7 +1213,7 @@
         <v>84.36</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -1215,7 +1227,7 @@
         <v>106.88</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1229,7 +1241,7 @@
         <v>115.72</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -1243,7 +1255,7 @@
         <v>108.34</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -1257,7 +1269,7 @@
         <v>70.22</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -1271,7 +1283,7 @@
         <v>79.38</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -1285,7 +1297,7 @@
         <v>144.34</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -1299,7 +1311,7 @@
         <v>110.46</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -1313,7 +1325,7 @@
         <v>110.14</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -1327,7 +1339,7 @@
         <v>111.28</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -1341,7 +1353,7 @@
         <v>63.82</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -1355,7 +1367,7 @@
         <v>88.22</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -1369,7 +1381,7 @@
         <v>114.36</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -1383,7 +1395,7 @@
         <v>99.86</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -1397,7 +1409,7 @@
         <v>107.68</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>35</v>
       </c>
@@ -1411,7 +1423,7 @@
         <v>131.04</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -1425,7 +1437,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -1439,7 +1451,7 @@
         <v>86.42</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -1453,7 +1465,7 @@
         <v>110.82</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -1467,7 +1479,7 @@
         <v>98.26</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -1481,7 +1493,7 @@
         <v>98.78</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -1495,7 +1507,7 @@
         <v>92.34</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -1509,7 +1521,7 @@
         <v>85.2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -1523,7 +1535,7 @@
         <v>109.08</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -1537,7 +1549,7 @@
         <v>88.1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -1551,7 +1563,7 @@
         <v>129.84</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -1565,7 +1577,7 @@
         <v>85.2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>35</v>
       </c>
@@ -1579,7 +1591,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>15</v>
       </c>
@@ -1593,7 +1605,7 @@
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -1607,7 +1619,7 @@
         <v>75.16</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>19</v>
       </c>
@@ -1621,7 +1633,7 @@
         <v>148.41999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -1635,7 +1647,7 @@
         <v>80.58</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>17</v>
       </c>
@@ -1649,7 +1661,7 @@
         <v>84.24</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -1663,7 +1675,7 @@
         <v>98.06</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>14</v>
       </c>
@@ -1677,7 +1689,7 @@
         <v>104.4</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -1691,7 +1703,7 @@
         <v>77.58</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -1705,7 +1717,7 @@
         <v>119.56</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -1718,11 +1730,8 @@
       <c r="D86" s="1">
         <v>119.22</v>
       </c>
-      <c r="E86" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -1735,11 +1744,8 @@
       <c r="D87" s="1">
         <v>116.9</v>
       </c>
-      <c r="E87" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>35</v>
       </c>
@@ -1752,11 +1758,8 @@
       <c r="D88" s="1">
         <v>96.96</v>
       </c>
-      <c r="E88" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>15</v>
       </c>
@@ -1769,11 +1772,8 @@
       <c r="D89" s="1">
         <v>101.48</v>
       </c>
-      <c r="E89" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>16</v>
       </c>
@@ -1786,11 +1786,8 @@
       <c r="D90" s="1">
         <v>99.34</v>
       </c>
-      <c r="E90" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -1803,11 +1800,8 @@
       <c r="D91" s="1">
         <v>158.36000000000001</v>
       </c>
-      <c r="E91" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>12</v>
       </c>
@@ -1820,11 +1814,8 @@
       <c r="D92" s="1">
         <v>113.66</v>
       </c>
-      <c r="E92" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>17</v>
       </c>
@@ -1837,11 +1828,8 @@
       <c r="D93" s="1">
         <v>100.2</v>
       </c>
-      <c r="E93" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -1854,11 +1842,8 @@
       <c r="D94" s="1">
         <v>99.7</v>
       </c>
-      <c r="E94" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -1871,11 +1856,8 @@
       <c r="D95" s="1">
         <v>111.42</v>
       </c>
-      <c r="E95" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -1888,11 +1870,8 @@
       <c r="D96" s="1">
         <v>130.58000000000001</v>
       </c>
-      <c r="E96" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -1905,12 +1884,213 @@
       <c r="D97" s="1">
         <v>109.06</v>
       </c>
-      <c r="E97" t="s">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98" s="1">
+        <v>61.08</v>
+      </c>
+      <c r="D98" s="1">
+        <v>139.12</v>
+      </c>
+      <c r="E98" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99" s="1">
+        <v>94.62</v>
+      </c>
+      <c r="D99" s="1">
+        <v>130.02000000000001</v>
+      </c>
+      <c r="E99" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>35</v>
+      </c>
+      <c r="B100" t="s">
+        <v>37</v>
+      </c>
+      <c r="C100" s="1">
+        <v>139.12</v>
+      </c>
+      <c r="D100" s="1">
+        <v>61.08</v>
+      </c>
+      <c r="E100" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" s="1">
+        <v>88.46</v>
+      </c>
+      <c r="D101" s="1">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="E101" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102" s="1">
+        <v>83.98</v>
+      </c>
+      <c r="D102" s="1">
+        <v>91.8</v>
+      </c>
+      <c r="E102" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>19</v>
+      </c>
+      <c r="B103" t="s">
+        <v>37</v>
+      </c>
+      <c r="C103" s="1">
+        <v>92.02</v>
+      </c>
+      <c r="D103" s="1">
+        <v>98.88</v>
+      </c>
+      <c r="E103" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" t="s">
+        <v>37</v>
+      </c>
+      <c r="C104" s="1">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="D104" s="1">
+        <v>88.46</v>
+      </c>
+      <c r="E104" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>17</v>
+      </c>
+      <c r="B105" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" s="1">
+        <v>130.02000000000001</v>
+      </c>
+      <c r="D105" s="1">
+        <v>94.62</v>
+      </c>
+      <c r="E105" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" t="s">
+        <v>37</v>
+      </c>
+      <c r="C106" s="1">
+        <v>98.54</v>
+      </c>
+      <c r="D106" s="1">
+        <v>102.14</v>
+      </c>
+      <c r="E106" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C107" s="1">
+        <v>91.8</v>
+      </c>
+      <c r="D107" s="1">
+        <v>83.98</v>
+      </c>
+      <c r="E107" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" t="s">
+        <v>37</v>
+      </c>
+      <c r="C108" s="1">
+        <v>102.14</v>
+      </c>
+      <c r="D108" s="1">
+        <v>98.54</v>
+      </c>
+      <c r="E108" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" t="s">
+        <v>37</v>
+      </c>
+      <c r="C109" s="1">
+        <v>98.88</v>
+      </c>
+      <c r="D109" s="1">
+        <v>92.02</v>
+      </c>
+      <c r="E109" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A13">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/FFL_Data.xlsx
+++ b/FFL_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelrade\Downloads\FFL-Dash-2023-main\FFL-Dash-2023-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelrade\Downloads\FFL-Dash-2023-main (1)\FFL-Dash-2023-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6586FA-B336-41CE-85B0-1A33398E47AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA24E145-A4EE-4EF5-BA27-E1DEB4EF45E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2023 Results'!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="39">
   <si>
     <t>Points Against</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Hard Nuk Life</t>
   </si>
   <si>
-    <t>Mocha Joe's</t>
-  </si>
-  <si>
     <t>Above and Bijan</t>
   </si>
   <si>
@@ -151,13 +148,19 @@
   </si>
   <si>
     <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Dawsons Reek</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +170,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -192,9 +201,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,11 +519,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FD601-2028-0A4F-BA12-553C96356FC4}">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -543,7 +553,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -557,100 +567,100 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>102.14</v>
+        <v>88.48</v>
       </c>
       <c r="D3">
-        <v>90.14</v>
+        <v>90.04</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>84.64</v>
+        <v>102.14</v>
       </c>
       <c r="D4">
-        <v>94.16</v>
+        <v>90.14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>135.91999999999999</v>
+        <v>84.64</v>
       </c>
       <c r="D5">
-        <v>84.7</v>
+        <v>94.16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>90.2</v>
+        <v>135.91999999999999</v>
       </c>
       <c r="D6">
-        <v>113.54</v>
+        <v>84.7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7">
+        <v>90.2</v>
+      </c>
+      <c r="D7">
         <v>113.54</v>
-      </c>
-      <c r="D7">
-        <v>90.2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8">
-        <v>90.14</v>
+        <v>113.54</v>
       </c>
       <c r="D8">
-        <v>102.14</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9">
-        <v>88.48</v>
+        <v>90.14</v>
       </c>
       <c r="D9">
-        <v>90.04</v>
+        <v>102.14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -711,7 +721,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -725,100 +735,100 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15">
-        <v>119.94</v>
+        <v>113.88</v>
       </c>
       <c r="D15">
-        <v>84.8</v>
+        <v>123.72</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16">
-        <v>94.76</v>
+        <v>119.94</v>
       </c>
       <c r="D16">
-        <v>118.64</v>
+        <v>84.8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>84.8</v>
+        <v>94.76</v>
       </c>
       <c r="D17">
-        <v>119.94</v>
+        <v>118.64</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18">
-        <v>123.72</v>
+        <v>84.8</v>
       </c>
       <c r="D18">
-        <v>113.88</v>
+        <v>119.94</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19">
-        <v>88.06</v>
+        <v>123.72</v>
       </c>
       <c r="D19">
-        <v>107.34</v>
+        <v>113.88</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20">
-        <v>102.5</v>
+        <v>88.06</v>
       </c>
       <c r="D20">
-        <v>98.5</v>
+        <v>107.34</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21">
-        <v>113.88</v>
+        <v>102.5</v>
       </c>
       <c r="D21">
-        <v>123.72</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -879,7 +889,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -893,100 +903,100 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="1">
-        <v>123.46</v>
+        <v>117.08</v>
       </c>
       <c r="D27">
-        <v>135.96</v>
+        <v>110.92</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C28">
-        <v>110.92</v>
-      </c>
-      <c r="D28" s="1">
-        <v>117.08</v>
+      <c r="C28" s="1">
+        <v>123.46</v>
+      </c>
+      <c r="D28">
+        <v>135.96</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="1">
-        <v>62.66</v>
+      <c r="C29">
+        <v>110.92</v>
       </c>
       <c r="D29" s="1">
-        <v>88.7</v>
+        <v>117.08</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
-      <c r="C30">
-        <v>140.78</v>
-      </c>
-      <c r="D30">
-        <v>143.66</v>
+      <c r="C30" s="1">
+        <v>62.66</v>
+      </c>
+      <c r="D30" s="1">
+        <v>88.7</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31">
-        <v>135.96</v>
-      </c>
-      <c r="D31" s="1">
-        <v>123.46</v>
+        <v>140.78</v>
+      </c>
+      <c r="D31">
+        <v>143.66</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="1">
-        <v>109.08</v>
+      <c r="C32">
+        <v>135.96</v>
       </c>
       <c r="D32" s="1">
-        <v>113.66</v>
+        <v>123.46</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="1">
-        <v>117.08</v>
-      </c>
-      <c r="D33">
-        <v>110.92</v>
+        <v>109.08</v>
+      </c>
+      <c r="D33" s="1">
+        <v>113.66</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1047,7 +1057,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
@@ -1061,100 +1071,100 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="1">
-        <v>139.04</v>
+        <v>84.36</v>
       </c>
       <c r="D39" s="1">
-        <v>82.92</v>
+        <v>99.24</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="1">
-        <v>133.30000000000001</v>
+        <v>139.04</v>
       </c>
       <c r="D40" s="1">
-        <v>112.26</v>
+        <v>82.92</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="1">
-        <v>107.44</v>
+        <v>133.30000000000001</v>
       </c>
       <c r="D41" s="1">
-        <v>90.64</v>
+        <v>112.26</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="1">
-        <v>112.26</v>
+        <v>107.44</v>
       </c>
       <c r="D42" s="1">
-        <v>133.30000000000001</v>
+        <v>90.64</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="1">
-        <v>87.48</v>
+        <v>112.26</v>
       </c>
       <c r="D43" s="1">
-        <v>123.96</v>
+        <v>133.30000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="1">
-        <v>103.42</v>
+        <v>87.48</v>
       </c>
       <c r="D44" s="1">
-        <v>119.5</v>
+        <v>123.96</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="1">
-        <v>84.36</v>
+        <v>103.42</v>
       </c>
       <c r="D45" s="1">
-        <v>99.24</v>
+        <v>119.5</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -1215,10 +1225,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C50" s="1">
         <v>111.28</v>
@@ -1229,100 +1239,100 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51" s="1">
-        <v>79.38</v>
+        <v>110.46</v>
       </c>
       <c r="D51" s="1">
-        <v>115.72</v>
+        <v>110.14</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C52" s="1">
-        <v>114.36</v>
+        <v>79.38</v>
       </c>
       <c r="D52" s="1">
-        <v>108.34</v>
+        <v>115.72</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C53" s="1">
-        <v>88.22</v>
+        <v>114.36</v>
       </c>
       <c r="D53" s="1">
-        <v>70.22</v>
+        <v>108.34</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C54" s="1">
-        <v>115.72</v>
+        <v>88.22</v>
       </c>
       <c r="D54" s="1">
-        <v>79.38</v>
+        <v>70.22</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C55" s="1">
-        <v>63.82</v>
+        <v>115.72</v>
       </c>
       <c r="D55" s="1">
-        <v>144.34</v>
+        <v>79.38</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C56" s="1">
-        <v>110.14</v>
+        <v>63.82</v>
       </c>
       <c r="D56" s="1">
-        <v>110.46</v>
+        <v>144.34</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C57" s="1">
+        <v>110.14</v>
+      </c>
+      <c r="D57" s="1">
         <v>110.46</v>
-      </c>
-      <c r="D57" s="1">
-        <v>110.14</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -1330,7 +1340,7 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C58" s="1">
         <v>106.88</v>
@@ -1344,7 +1354,7 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C59" s="1">
         <v>144.34</v>
@@ -1358,7 +1368,7 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C60" s="1">
         <v>70.22</v>
@@ -1372,7 +1382,7 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C61" s="1">
         <v>108.34</v>
@@ -1383,10 +1393,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C62" s="1">
         <v>85.2</v>
@@ -1397,100 +1407,100 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C63" s="1">
-        <v>92.34</v>
+        <v>97.5</v>
       </c>
       <c r="D63" s="1">
-        <v>107.68</v>
+        <v>98.78</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C64" s="1">
-        <v>98.26</v>
+        <v>92.34</v>
       </c>
       <c r="D64" s="1">
-        <v>131.04</v>
+        <v>107.68</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C65" s="1">
-        <v>98.78</v>
+        <v>98.26</v>
       </c>
       <c r="D65" s="1">
-        <v>97.5</v>
+        <v>131.04</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C66" s="1">
-        <v>88.1</v>
+        <v>98.78</v>
       </c>
       <c r="D66" s="1">
-        <v>86.42</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C67" s="1">
-        <v>109.08</v>
+        <v>88.1</v>
       </c>
       <c r="D67" s="1">
-        <v>110.82</v>
+        <v>86.42</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C68" s="1">
-        <v>131.04</v>
+        <v>109.08</v>
       </c>
       <c r="D68" s="1">
-        <v>98.26</v>
+        <v>110.82</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C69" s="1">
-        <v>97.5</v>
+        <v>131.04</v>
       </c>
       <c r="D69" s="1">
-        <v>98.78</v>
+        <v>98.26</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -1498,7 +1508,7 @@
         <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C70" s="1">
         <v>107.68</v>
@@ -1512,7 +1522,7 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C71" s="1">
         <v>99.86</v>
@@ -1526,7 +1536,7 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C72" s="1">
         <v>110.82</v>
@@ -1540,7 +1550,7 @@
         <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C73" s="1">
         <v>86.42</v>
@@ -1551,10 +1561,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C74" s="1">
         <v>77.58</v>
@@ -1565,100 +1575,100 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C75" s="1">
-        <v>104.4</v>
+        <v>148.41999999999999</v>
       </c>
       <c r="D75" s="1">
-        <v>85.2</v>
+        <v>84.24</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C76" s="1">
-        <v>137.19999999999999</v>
+        <v>104.4</v>
       </c>
       <c r="D76" s="1">
-        <v>69</v>
+        <v>85.2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C77" s="1">
+        <v>137.19999999999999</v>
+      </c>
+      <c r="D77" s="1">
         <v>69</v>
-      </c>
-      <c r="D77" s="1">
-        <v>137.19999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C78" s="1">
-        <v>98.06</v>
+        <v>69</v>
       </c>
       <c r="D78" s="1">
-        <v>75.16</v>
+        <v>137.19999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C79" s="1">
-        <v>84.24</v>
+        <v>98.06</v>
       </c>
       <c r="D79" s="1">
-        <v>148.41999999999999</v>
+        <v>75.16</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C80" s="1">
-        <v>119.56</v>
+        <v>84.24</v>
       </c>
       <c r="D80" s="1">
-        <v>80.58</v>
+        <v>148.41999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C81" s="1">
-        <v>148.41999999999999</v>
+        <v>119.56</v>
       </c>
       <c r="D81" s="1">
-        <v>84.24</v>
+        <v>80.58</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -1666,7 +1676,7 @@
         <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C82" s="1">
         <v>75.16</v>
@@ -1680,7 +1690,7 @@
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C83" s="1">
         <v>85.2</v>
@@ -1694,7 +1704,7 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C84" s="1">
         <v>129.84</v>
@@ -1708,7 +1718,7 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C85" s="1">
         <v>80.58</v>
@@ -1719,10 +1729,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C86" s="1">
         <v>100.2</v>
@@ -1733,100 +1743,100 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C87" s="1">
-        <v>130.58000000000001</v>
+        <v>119.22</v>
       </c>
       <c r="D87" s="1">
-        <v>116.9</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C88" s="1">
-        <v>158.36000000000001</v>
+        <v>130.58000000000001</v>
       </c>
       <c r="D88" s="1">
-        <v>96.96</v>
+        <v>116.9</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C89" s="1">
-        <v>109.06</v>
+        <v>158.36000000000001</v>
       </c>
       <c r="D89" s="1">
-        <v>101.48</v>
+        <v>96.96</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C90" s="1">
-        <v>113.66</v>
+        <v>109.06</v>
       </c>
       <c r="D90" s="1">
-        <v>99.34</v>
+        <v>101.48</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C91" s="1">
-        <v>96.96</v>
+        <v>113.66</v>
       </c>
       <c r="D91" s="1">
-        <v>158.36000000000001</v>
+        <v>99.34</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C92" s="1">
-        <v>99.34</v>
+        <v>96.96</v>
       </c>
       <c r="D92" s="1">
-        <v>113.66</v>
+        <v>158.36000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C93" s="1">
-        <v>119.22</v>
+        <v>99.34</v>
       </c>
       <c r="D93" s="1">
-        <v>100.2</v>
+        <v>113.66</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -1834,7 +1844,7 @@
         <v>13</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C94" s="1">
         <v>111.42</v>
@@ -1848,7 +1858,7 @@
         <v>14</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C95" s="1">
         <v>99.7</v>
@@ -1862,7 +1872,7 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C96" s="1">
         <v>116.9</v>
@@ -1876,7 +1886,7 @@
         <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C97" s="1">
         <v>101.48</v>
@@ -1887,10 +1897,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C98" s="1">
         <v>61.08</v>
@@ -1898,127 +1908,103 @@
       <c r="D98" s="1">
         <v>139.12</v>
       </c>
-      <c r="E98" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C99" s="1">
+        <v>130.02000000000001</v>
+      </c>
+      <c r="D99" s="1">
         <v>94.62</v>
-      </c>
-      <c r="D99" s="1">
-        <v>130.02000000000001</v>
-      </c>
-      <c r="E99" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C100" s="1">
-        <v>139.12</v>
+        <v>94.62</v>
       </c>
       <c r="D100" s="1">
-        <v>61.08</v>
-      </c>
-      <c r="E100" t="s">
-        <v>36</v>
+        <v>130.02000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C101" s="1">
-        <v>88.46</v>
+        <v>139.12</v>
       </c>
       <c r="D101" s="1">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="E101" t="s">
-        <v>22</v>
+        <v>61.08</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C102" s="1">
-        <v>83.98</v>
+        <v>88.46</v>
       </c>
       <c r="D102" s="1">
-        <v>91.8</v>
-      </c>
-      <c r="E102" t="s">
-        <v>23</v>
+        <v>64.900000000000006</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C103" s="1">
-        <v>92.02</v>
+        <v>83.98</v>
       </c>
       <c r="D103" s="1">
-        <v>98.88</v>
-      </c>
-      <c r="E103" t="s">
-        <v>24</v>
+        <v>91.8</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C104" s="1">
-        <v>64.900000000000006</v>
+        <v>92.02</v>
       </c>
       <c r="D104" s="1">
-        <v>88.46</v>
-      </c>
-      <c r="E104" t="s">
-        <v>25</v>
+        <v>98.88</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C105" s="1">
-        <v>130.02000000000001</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="D105" s="1">
-        <v>94.62</v>
-      </c>
-      <c r="E105" t="s">
-        <v>26</v>
+        <v>88.46</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
@@ -2026,16 +2012,13 @@
         <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C106" s="1">
         <v>98.54</v>
       </c>
       <c r="D106" s="1">
         <v>102.14</v>
-      </c>
-      <c r="E106" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
@@ -2043,16 +2026,13 @@
         <v>14</v>
       </c>
       <c r="B107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C107" s="1">
         <v>91.8</v>
       </c>
       <c r="D107" s="1">
         <v>83.98</v>
-      </c>
-      <c r="E107" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
@@ -2060,16 +2040,13 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C108" s="1">
         <v>102.14</v>
       </c>
       <c r="D108" s="1">
         <v>98.54</v>
-      </c>
-      <c r="E108" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
@@ -2077,7 +2054,7 @@
         <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C109" s="1">
         <v>98.88</v>
@@ -2085,11 +2062,217 @@
       <c r="D109" s="1">
         <v>92.02</v>
       </c>
-      <c r="E109" t="s">
-        <v>30</v>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" t="s">
+        <v>37</v>
+      </c>
+      <c r="C110" s="1">
+        <v>160.04</v>
+      </c>
+      <c r="D110" s="1">
+        <v>107.82</v>
+      </c>
+      <c r="E110" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B111" t="s">
+        <v>37</v>
+      </c>
+      <c r="C111" s="1">
+        <v>105.58</v>
+      </c>
+      <c r="D111" s="1">
+        <v>127.52</v>
+      </c>
+      <c r="E111" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" t="s">
+        <v>37</v>
+      </c>
+      <c r="C112" s="1">
+        <v>110.9</v>
+      </c>
+      <c r="D112" s="1">
+        <v>87.78</v>
+      </c>
+      <c r="E112" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>34</v>
+      </c>
+      <c r="B113" t="s">
+        <v>37</v>
+      </c>
+      <c r="C113" s="1">
+        <v>87.78</v>
+      </c>
+      <c r="D113" s="1">
+        <v>110.9</v>
+      </c>
+      <c r="E113" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114" t="s">
+        <v>37</v>
+      </c>
+      <c r="C114" s="1">
+        <v>94.46</v>
+      </c>
+      <c r="D114" s="1">
+        <v>98.42</v>
+      </c>
+      <c r="E114" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>16</v>
+      </c>
+      <c r="B115" t="s">
+        <v>37</v>
+      </c>
+      <c r="C115" s="1">
+        <v>98.42</v>
+      </c>
+      <c r="D115" s="1">
+        <v>94.46</v>
+      </c>
+      <c r="E115" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>18</v>
+      </c>
+      <c r="B116" t="s">
+        <v>37</v>
+      </c>
+      <c r="C116" s="1">
+        <v>103.36</v>
+      </c>
+      <c r="D116" s="1">
+        <v>119.72</v>
+      </c>
+      <c r="E116" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" t="s">
+        <v>37</v>
+      </c>
+      <c r="C117" s="1">
+        <v>119.72</v>
+      </c>
+      <c r="D117" s="1">
+        <v>103.36</v>
+      </c>
+      <c r="E117" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" t="s">
+        <v>37</v>
+      </c>
+      <c r="C118" s="1">
+        <v>127.52</v>
+      </c>
+      <c r="D118" s="1">
+        <v>105.58</v>
+      </c>
+      <c r="E118" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" t="s">
+        <v>37</v>
+      </c>
+      <c r="C119" s="1">
+        <v>109.74</v>
+      </c>
+      <c r="D119" s="1">
+        <v>101.78</v>
+      </c>
+      <c r="E119" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" t="s">
+        <v>37</v>
+      </c>
+      <c r="C120" s="1">
+        <v>101.78</v>
+      </c>
+      <c r="D120" s="1">
+        <v>109.74</v>
+      </c>
+      <c r="E120" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" t="s">
+        <v>37</v>
+      </c>
+      <c r="C121" s="1">
+        <v>107.82</v>
+      </c>
+      <c r="D121" s="1">
+        <v>160.04</v>
+      </c>
+      <c r="E121" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{657FD601-2028-0A4F-BA12-553C96356FC4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E121">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A13">
     <sortCondition ref="A2"/>
   </sortState>

--- a/FFL_Data.xlsx
+++ b/FFL_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelrade\Downloads\FFL-Dash-2023-main (1)\FFL-Dash-2023-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelrade\Downloads\FFL-Dash-2023-main\FFL-Dash-2023-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA24E145-A4EE-4EF5-BA27-E1DEB4EF45E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5419F2B6-E3B9-4A91-8971-32E3B4FEC39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="40">
   <si>
     <t>Points Against</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Dawsons Reek</t>
+  </si>
+  <si>
+    <t>Week 11</t>
   </si>
 </sst>
 </file>
@@ -519,22 +522,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FD601-2028-0A4F-BA12-553C96356FC4}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.1796875" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -551,7 +554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -565,7 +568,7 @@
         <v>135.91999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -579,7 +582,7 @@
         <v>90.04</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -593,7 +596,7 @@
         <v>90.14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -607,7 +610,7 @@
         <v>94.16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -621,7 +624,7 @@
         <v>84.7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -635,7 +638,7 @@
         <v>113.54</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -649,7 +652,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -663,7 +666,7 @@
         <v>102.14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -677,7 +680,7 @@
         <v>82.76</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -691,7 +694,7 @@
         <v>84.64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -705,7 +708,7 @@
         <v>88.48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -719,7 +722,7 @@
         <v>89.96</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -733,7 +736,7 @@
         <v>88.06</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -747,7 +750,7 @@
         <v>123.72</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -761,7 +764,7 @@
         <v>84.8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -775,7 +778,7 @@
         <v>118.64</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -789,7 +792,7 @@
         <v>119.94</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -803,7 +806,7 @@
         <v>113.88</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -817,7 +820,7 @@
         <v>107.34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -831,7 +834,7 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -845,7 +848,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -859,7 +862,7 @@
         <v>77.180000000000007</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -873,7 +876,7 @@
         <v>94.76</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -887,7 +890,7 @@
         <v>65.099999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -901,7 +904,7 @@
         <v>140.78</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -915,7 +918,7 @@
         <v>110.92</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -929,7 +932,7 @@
         <v>135.96</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -943,7 +946,7 @@
         <v>117.08</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -957,7 +960,7 @@
         <v>88.7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -971,7 +974,7 @@
         <v>143.66</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -985,7 +988,7 @@
         <v>123.46</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -999,7 +1002,7 @@
         <v>113.66</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -1013,7 +1016,7 @@
         <v>62.66</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>109.08</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1041,7 +1044,7 @@
         <v>112.98</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1055,7 +1058,7 @@
         <v>137.16</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -1069,7 +1072,7 @@
         <v>139.04</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>99.24</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1097,7 +1100,7 @@
         <v>82.92</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>112.26</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -1125,7 +1128,7 @@
         <v>90.64</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -1139,7 +1142,7 @@
         <v>133.30000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -1153,7 +1156,7 @@
         <v>123.96</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -1167,7 +1170,7 @@
         <v>119.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -1181,7 +1184,7 @@
         <v>87.48</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -1195,7 +1198,7 @@
         <v>107.44</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -1209,7 +1212,7 @@
         <v>103.42</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -1223,7 +1226,7 @@
         <v>84.36</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -1237,7 +1240,7 @@
         <v>106.88</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -1251,7 +1254,7 @@
         <v>110.14</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1265,7 +1268,7 @@
         <v>115.72</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>34</v>
       </c>
@@ -1279,7 +1282,7 @@
         <v>108.34</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -1293,7 +1296,7 @@
         <v>70.22</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -1307,7 +1310,7 @@
         <v>79.38</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -1321,7 +1324,7 @@
         <v>144.34</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -1335,7 +1338,7 @@
         <v>110.46</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -1349,7 +1352,7 @@
         <v>111.28</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -1363,7 +1366,7 @@
         <v>63.82</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -1377,7 +1380,7 @@
         <v>88.22</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -1391,7 +1394,7 @@
         <v>114.36</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -1405,7 +1408,7 @@
         <v>99.86</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -1419,7 +1422,7 @@
         <v>98.78</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -1433,7 +1436,7 @@
         <v>107.68</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>34</v>
       </c>
@@ -1447,7 +1450,7 @@
         <v>131.04</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -1461,7 +1464,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -1475,7 +1478,7 @@
         <v>86.42</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -1489,7 +1492,7 @@
         <v>110.82</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -1503,7 +1506,7 @@
         <v>98.26</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -1517,7 +1520,7 @@
         <v>92.34</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -1531,7 +1534,7 @@
         <v>85.2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -1545,7 +1548,7 @@
         <v>109.08</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -1559,7 +1562,7 @@
         <v>88.1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -1573,7 +1576,7 @@
         <v>129.84</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>38</v>
       </c>
@@ -1587,7 +1590,7 @@
         <v>84.24</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -1601,7 +1604,7 @@
         <v>85.2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>34</v>
       </c>
@@ -1615,7 +1618,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -1629,7 +1632,7 @@
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -1643,7 +1646,7 @@
         <v>75.16</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -1657,7 +1660,7 @@
         <v>148.41999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -1671,7 +1674,7 @@
         <v>80.58</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -1685,7 +1688,7 @@
         <v>98.06</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>14</v>
       </c>
@@ -1699,7 +1702,7 @@
         <v>104.4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -1713,7 +1716,7 @@
         <v>77.58</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -1727,7 +1730,7 @@
         <v>119.56</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -1741,7 +1744,7 @@
         <v>119.22</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>38</v>
       </c>
@@ -1755,7 +1758,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -1769,7 +1772,7 @@
         <v>116.9</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>34</v>
       </c>
@@ -1783,7 +1786,7 @@
         <v>96.96</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>15</v>
       </c>
@@ -1797,7 +1800,7 @@
         <v>101.48</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>16</v>
       </c>
@@ -1811,7 +1814,7 @@
         <v>99.34</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>18</v>
       </c>
@@ -1825,7 +1828,7 @@
         <v>158.36000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -1839,7 +1842,7 @@
         <v>113.66</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -1853,7 +1856,7 @@
         <v>99.7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -1867,7 +1870,7 @@
         <v>111.42</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -1881,7 +1884,7 @@
         <v>130.58000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -1895,7 +1898,7 @@
         <v>109.06</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>17</v>
       </c>
@@ -1909,7 +1912,7 @@
         <v>139.12</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>38</v>
       </c>
@@ -1923,7 +1926,7 @@
         <v>94.62</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -1937,7 +1940,7 @@
         <v>130.02000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>34</v>
       </c>
@@ -1951,7 +1954,7 @@
         <v>61.08</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>15</v>
       </c>
@@ -1965,7 +1968,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -1979,7 +1982,7 @@
         <v>91.8</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>18</v>
       </c>
@@ -1993,7 +1996,7 @@
         <v>98.88</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>12</v>
       </c>
@@ -2007,7 +2010,7 @@
         <v>88.46</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>13</v>
       </c>
@@ -2021,7 +2024,7 @@
         <v>102.14</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>14</v>
       </c>
@@ -2035,7 +2038,7 @@
         <v>83.98</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -2049,7 +2052,7 @@
         <v>98.54</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -2063,7 +2066,7 @@
         <v>92.02</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -2076,11 +2079,8 @@
       <c r="D110" s="1">
         <v>107.82</v>
       </c>
-      <c r="E110" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>38</v>
       </c>
@@ -2093,11 +2093,8 @@
       <c r="D111" s="1">
         <v>127.52</v>
       </c>
-      <c r="E111" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>4</v>
       </c>
@@ -2110,11 +2107,8 @@
       <c r="D112" s="1">
         <v>87.78</v>
       </c>
-      <c r="E112" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>34</v>
       </c>
@@ -2127,11 +2121,8 @@
       <c r="D113" s="1">
         <v>110.9</v>
       </c>
-      <c r="E113" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>15</v>
       </c>
@@ -2144,11 +2135,8 @@
       <c r="D114" s="1">
         <v>98.42</v>
       </c>
-      <c r="E114" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>16</v>
       </c>
@@ -2161,11 +2149,8 @@
       <c r="D115" s="1">
         <v>94.46</v>
       </c>
-      <c r="E115" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>18</v>
       </c>
@@ -2178,11 +2163,8 @@
       <c r="D116" s="1">
         <v>119.72</v>
       </c>
-      <c r="E116" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>12</v>
       </c>
@@ -2195,11 +2177,8 @@
       <c r="D117" s="1">
         <v>103.36</v>
       </c>
-      <c r="E117" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -2212,11 +2191,8 @@
       <c r="D118" s="1">
         <v>105.58</v>
       </c>
-      <c r="E118" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>14</v>
       </c>
@@ -2229,11 +2205,8 @@
       <c r="D119" s="1">
         <v>101.78</v>
       </c>
-      <c r="E119" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>11</v>
       </c>
@@ -2246,11 +2219,8 @@
       <c r="D120" s="1">
         <v>109.74</v>
       </c>
-      <c r="E120" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -2263,7 +2233,208 @@
       <c r="D121" s="1">
         <v>160.04</v>
       </c>
-      <c r="E121" t="s">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122" t="s">
+        <v>39</v>
+      </c>
+      <c r="C122" s="1">
+        <v>123.12</v>
+      </c>
+      <c r="D122" s="1">
+        <v>115.98</v>
+      </c>
+      <c r="E122" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B123" t="s">
+        <v>39</v>
+      </c>
+      <c r="C123" s="1">
+        <v>112.34</v>
+      </c>
+      <c r="D123" s="1">
+        <v>109.14</v>
+      </c>
+      <c r="E123" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" t="s">
+        <v>39</v>
+      </c>
+      <c r="C124" s="1">
+        <v>125.76</v>
+      </c>
+      <c r="D124" s="1">
+        <v>65.66</v>
+      </c>
+      <c r="E124" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>34</v>
+      </c>
+      <c r="B125" t="s">
+        <v>39</v>
+      </c>
+      <c r="C125" s="1">
+        <v>96.9</v>
+      </c>
+      <c r="D125" s="1">
+        <v>118</v>
+      </c>
+      <c r="E125" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>15</v>
+      </c>
+      <c r="B126" t="s">
+        <v>39</v>
+      </c>
+      <c r="C126" s="1">
+        <v>126.66</v>
+      </c>
+      <c r="D126" s="1">
+        <v>67.3</v>
+      </c>
+      <c r="E126" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>16</v>
+      </c>
+      <c r="B127" t="s">
+        <v>39</v>
+      </c>
+      <c r="C127" s="1">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="D127" s="1">
+        <v>94.2</v>
+      </c>
+      <c r="E127" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>18</v>
+      </c>
+      <c r="B128" t="s">
+        <v>39</v>
+      </c>
+      <c r="C128" s="1">
+        <v>67.3</v>
+      </c>
+      <c r="D128" s="1">
+        <v>126.66</v>
+      </c>
+      <c r="E128" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" t="s">
+        <v>39</v>
+      </c>
+      <c r="C129" s="1">
+        <v>115.98</v>
+      </c>
+      <c r="D129" s="1">
+        <v>123.12</v>
+      </c>
+      <c r="E129" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" t="s">
+        <v>39</v>
+      </c>
+      <c r="C130" s="1">
+        <v>118</v>
+      </c>
+      <c r="D130" s="1">
+        <v>96.9</v>
+      </c>
+      <c r="E130" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131" t="s">
+        <v>39</v>
+      </c>
+      <c r="C131" s="1">
+        <v>109.14</v>
+      </c>
+      <c r="D131" s="1">
+        <v>112.34</v>
+      </c>
+      <c r="E131" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" t="s">
+        <v>39</v>
+      </c>
+      <c r="C132" s="1">
+        <v>94.2</v>
+      </c>
+      <c r="D132" s="1">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="E132" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" t="s">
+        <v>39</v>
+      </c>
+      <c r="C133" s="1">
+        <v>65.66</v>
+      </c>
+      <c r="D133" s="1">
+        <v>125.76</v>
+      </c>
+      <c r="E133" t="s">
         <v>29</v>
       </c>
     </row>

--- a/FFL_Data.xlsx
+++ b/FFL_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelrade\Downloads\FFL-Dash-2023-main\FFL-Dash-2023-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5419F2B6-E3B9-4A91-8971-32E3B4FEC39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B46D621-854B-46FE-81B5-42C7CE70AE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
+    <workbookView xWindow="585" yWindow="210" windowWidth="21600" windowHeight="15225" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
   </bookViews>
   <sheets>
     <sheet name="2023 Results" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="41">
   <si>
     <t>Points Against</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
 </sst>
 </file>
@@ -522,11 +525,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FD601-2028-0A4F-BA12-553C96356FC4}">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D136" sqref="D136"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2108,7 +2111,7 @@
         <v>87.78</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>34</v>
       </c>
@@ -2122,7 +2125,7 @@
         <v>110.9</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>15</v>
       </c>
@@ -2136,7 +2139,7 @@
         <v>98.42</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>16</v>
       </c>
@@ -2150,7 +2153,7 @@
         <v>94.46</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>18</v>
       </c>
@@ -2164,7 +2167,7 @@
         <v>119.72</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>12</v>
       </c>
@@ -2178,7 +2181,7 @@
         <v>103.36</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -2192,7 +2195,7 @@
         <v>105.58</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>14</v>
       </c>
@@ -2206,7 +2209,7 @@
         <v>101.78</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>11</v>
       </c>
@@ -2220,7 +2223,7 @@
         <v>109.74</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -2234,7 +2237,7 @@
         <v>160.04</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>17</v>
       </c>
@@ -2247,11 +2250,8 @@
       <c r="D122" s="1">
         <v>115.98</v>
       </c>
-      <c r="E122" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>38</v>
       </c>
@@ -2264,11 +2264,8 @@
       <c r="D123" s="1">
         <v>109.14</v>
       </c>
-      <c r="E123" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -2281,11 +2278,8 @@
       <c r="D124" s="1">
         <v>65.66</v>
       </c>
-      <c r="E124" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>34</v>
       </c>
@@ -2298,11 +2292,8 @@
       <c r="D125" s="1">
         <v>118</v>
       </c>
-      <c r="E125" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>15</v>
       </c>
@@ -2315,11 +2306,8 @@
       <c r="D126" s="1">
         <v>67.3</v>
       </c>
-      <c r="E126" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>16</v>
       </c>
@@ -2332,11 +2320,8 @@
       <c r="D127" s="1">
         <v>94.2</v>
       </c>
-      <c r="E127" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>18</v>
       </c>
@@ -2348,9 +2333,6 @@
       </c>
       <c r="D128" s="1">
         <v>126.66</v>
-      </c>
-      <c r="E128" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -2366,9 +2348,6 @@
       <c r="D129" s="1">
         <v>123.12</v>
       </c>
-      <c r="E129" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
@@ -2383,9 +2362,6 @@
       <c r="D130" s="1">
         <v>96.9</v>
       </c>
-      <c r="E130" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
@@ -2400,9 +2376,6 @@
       <c r="D131" s="1">
         <v>112.34</v>
       </c>
-      <c r="E131" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
@@ -2417,9 +2390,6 @@
       <c r="D132" s="1">
         <v>73.900000000000006</v>
       </c>
-      <c r="E132" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
@@ -2434,9 +2404,213 @@
       <c r="D133" s="1">
         <v>125.76</v>
       </c>
-      <c r="E133" t="s">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>17</v>
+      </c>
+      <c r="B134" t="s">
+        <v>40</v>
+      </c>
+      <c r="C134" s="1">
+        <v>116.66</v>
+      </c>
+      <c r="D134" s="1">
+        <v>138.34</v>
+      </c>
+      <c r="E134" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B135" t="s">
+        <v>40</v>
+      </c>
+      <c r="C135" s="1">
+        <v>138.28</v>
+      </c>
+      <c r="D135" s="1">
+        <v>104.68</v>
+      </c>
+      <c r="E135" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" t="s">
+        <v>40</v>
+      </c>
+      <c r="C136" s="1">
+        <v>121.64</v>
+      </c>
+      <c r="D136" s="1">
+        <v>87.72</v>
+      </c>
+      <c r="E136" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>34</v>
+      </c>
+      <c r="B137" t="s">
+        <v>40</v>
+      </c>
+      <c r="C137" s="1">
+        <v>107.76</v>
+      </c>
+      <c r="D137" s="1">
+        <v>115.56</v>
+      </c>
+      <c r="E137" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" t="s">
+        <v>40</v>
+      </c>
+      <c r="C138" s="1">
+        <v>138.34</v>
+      </c>
+      <c r="D138" s="1">
+        <v>116.66</v>
+      </c>
+      <c r="E138" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>16</v>
+      </c>
+      <c r="B139" t="s">
+        <v>40</v>
+      </c>
+      <c r="C139" s="1">
+        <v>116.9</v>
+      </c>
+      <c r="D139" s="1">
+        <v>105.32</v>
+      </c>
+      <c r="E139" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>18</v>
+      </c>
+      <c r="B140" t="s">
+        <v>40</v>
+      </c>
+      <c r="C140" s="1">
+        <v>105.32</v>
+      </c>
+      <c r="D140" s="1">
+        <v>116.9</v>
+      </c>
+      <c r="E140" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" t="s">
+        <v>40</v>
+      </c>
+      <c r="C141" s="1">
+        <v>87.72</v>
+      </c>
+      <c r="D141" s="1">
+        <v>121.64</v>
+      </c>
+      <c r="E141" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" t="s">
+        <v>40</v>
+      </c>
+      <c r="C142" s="1">
+        <v>125.58</v>
+      </c>
+      <c r="D142" s="1">
+        <v>83.08</v>
+      </c>
+      <c r="E142" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143" t="s">
+        <v>40</v>
+      </c>
+      <c r="C143" s="1">
+        <v>115.56</v>
+      </c>
+      <c r="D143" s="1">
+        <v>107.76</v>
+      </c>
+      <c r="E143" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" t="s">
+        <v>40</v>
+      </c>
+      <c r="C144" s="1">
+        <v>104.68</v>
+      </c>
+      <c r="D144" s="1">
+        <v>138.28</v>
+      </c>
+      <c r="E144" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" t="s">
+        <v>40</v>
+      </c>
+      <c r="C145" s="1">
+        <v>83.08</v>
+      </c>
+      <c r="D145" s="1">
+        <v>125.58</v>
+      </c>
+      <c r="E145" t="s">
         <v>29</v>
       </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{657FD601-2028-0A4F-BA12-553C96356FC4}">

--- a/FFL_Data.xlsx
+++ b/FFL_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelrade\Downloads\FFL-Dash-2023-main\FFL-Dash-2023-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B46D621-854B-46FE-81B5-42C7CE70AE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78546A5-4999-4181-8C9D-7184E57BC800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="585" yWindow="210" windowWidth="21600" windowHeight="15225" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="42">
   <si>
     <t>Points Against</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
 </sst>
 </file>
@@ -207,9 +210,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -525,11 +527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FD601-2028-0A4F-BA12-553C96356FC4}">
-  <dimension ref="A1:E147"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D146" sqref="D146"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,7 +916,7 @@
       <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>117.08</v>
       </c>
       <c r="D27">
@@ -928,7 +930,7 @@
       <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>123.46</v>
       </c>
       <c r="D28">
@@ -945,7 +947,7 @@
       <c r="C29">
         <v>110.92</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>117.08</v>
       </c>
     </row>
@@ -956,10 +958,10 @@
       <c r="B30" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>62.66</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>88.7</v>
       </c>
     </row>
@@ -987,7 +989,7 @@
       <c r="C32">
         <v>135.96</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>123.46</v>
       </c>
     </row>
@@ -998,10 +1000,10 @@
       <c r="B33" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>109.08</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>113.66</v>
       </c>
     </row>
@@ -1012,10 +1014,10 @@
       <c r="B34" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>88.7</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>62.66</v>
       </c>
     </row>
@@ -1026,10 +1028,10 @@
       <c r="B35" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>113.66</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>109.08</v>
       </c>
     </row>
@@ -1040,10 +1042,10 @@
       <c r="B36" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>137.16</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>112.98</v>
       </c>
     </row>
@@ -1054,10 +1056,10 @@
       <c r="B37" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>112.98</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>137.16</v>
       </c>
     </row>
@@ -1068,10 +1070,10 @@
       <c r="B38" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>82.92</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>139.04</v>
       </c>
     </row>
@@ -1082,10 +1084,10 @@
       <c r="B39" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>84.36</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
         <v>99.24</v>
       </c>
     </row>
@@ -1096,10 +1098,10 @@
       <c r="B40" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>139.04</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>82.92</v>
       </c>
     </row>
@@ -1110,10 +1112,10 @@
       <c r="B41" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>133.30000000000001</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41">
         <v>112.26</v>
       </c>
     </row>
@@ -1124,10 +1126,10 @@
       <c r="B42" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>107.44</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42">
         <v>90.64</v>
       </c>
     </row>
@@ -1138,10 +1140,10 @@
       <c r="B43" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>112.26</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
         <v>133.30000000000001</v>
       </c>
     </row>
@@ -1152,10 +1154,10 @@
       <c r="B44" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>87.48</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
         <v>123.96</v>
       </c>
     </row>
@@ -1166,10 +1168,10 @@
       <c r="B45" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>103.42</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
         <v>119.5</v>
       </c>
     </row>
@@ -1180,10 +1182,10 @@
       <c r="B46" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>123.96</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
         <v>87.48</v>
       </c>
     </row>
@@ -1194,10 +1196,10 @@
       <c r="B47" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>90.64</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
         <v>107.44</v>
       </c>
     </row>
@@ -1208,10 +1210,10 @@
       <c r="B48" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>119.5</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48">
         <v>103.42</v>
       </c>
     </row>
@@ -1222,10 +1224,10 @@
       <c r="B49" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>99.24</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
         <v>84.36</v>
       </c>
     </row>
@@ -1236,10 +1238,10 @@
       <c r="B50" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>111.28</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
         <v>106.88</v>
       </c>
     </row>
@@ -1250,10 +1252,10 @@
       <c r="B51" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
         <v>110.46</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51">
         <v>110.14</v>
       </c>
     </row>
@@ -1264,10 +1266,10 @@
       <c r="B52" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52">
         <v>79.38</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52">
         <v>115.72</v>
       </c>
     </row>
@@ -1278,10 +1280,10 @@
       <c r="B53" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53">
         <v>114.36</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53">
         <v>108.34</v>
       </c>
     </row>
@@ -1292,10 +1294,10 @@
       <c r="B54" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54">
         <v>88.22</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54">
         <v>70.22</v>
       </c>
     </row>
@@ -1306,10 +1308,10 @@
       <c r="B55" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55">
         <v>115.72</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55">
         <v>79.38</v>
       </c>
     </row>
@@ -1320,10 +1322,10 @@
       <c r="B56" t="s">
         <v>30</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56">
         <v>63.82</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56">
         <v>144.34</v>
       </c>
     </row>
@@ -1334,10 +1336,10 @@
       <c r="B57" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57">
         <v>110.14</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57">
         <v>110.46</v>
       </c>
     </row>
@@ -1348,10 +1350,10 @@
       <c r="B58" t="s">
         <v>30</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58">
         <v>106.88</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58">
         <v>111.28</v>
       </c>
     </row>
@@ -1362,10 +1364,10 @@
       <c r="B59" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59">
         <v>144.34</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59">
         <v>63.82</v>
       </c>
     </row>
@@ -1376,10 +1378,10 @@
       <c r="B60" t="s">
         <v>30</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60">
         <v>70.22</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60">
         <v>88.22</v>
       </c>
     </row>
@@ -1390,10 +1392,10 @@
       <c r="B61" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61">
         <v>108.34</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61">
         <v>114.36</v>
       </c>
     </row>
@@ -1404,10 +1406,10 @@
       <c r="B62" t="s">
         <v>31</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62">
         <v>85.2</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62">
         <v>99.86</v>
       </c>
     </row>
@@ -1418,10 +1420,10 @@
       <c r="B63" t="s">
         <v>31</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63">
         <v>97.5</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63">
         <v>98.78</v>
       </c>
     </row>
@@ -1432,10 +1434,10 @@
       <c r="B64" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64">
         <v>92.34</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64">
         <v>107.68</v>
       </c>
     </row>
@@ -1446,10 +1448,10 @@
       <c r="B65" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65">
         <v>98.26</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65">
         <v>131.04</v>
       </c>
     </row>
@@ -1460,10 +1462,10 @@
       <c r="B66" t="s">
         <v>31</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66">
         <v>98.78</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66">
         <v>97.5</v>
       </c>
     </row>
@@ -1474,10 +1476,10 @@
       <c r="B67" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67">
         <v>88.1</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67">
         <v>86.42</v>
       </c>
     </row>
@@ -1488,10 +1490,10 @@
       <c r="B68" t="s">
         <v>31</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68">
         <v>109.08</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68">
         <v>110.82</v>
       </c>
     </row>
@@ -1502,10 +1504,10 @@
       <c r="B69" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69">
         <v>131.04</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69">
         <v>98.26</v>
       </c>
     </row>
@@ -1516,10 +1518,10 @@
       <c r="B70" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70">
         <v>107.68</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70">
         <v>92.34</v>
       </c>
     </row>
@@ -1530,10 +1532,10 @@
       <c r="B71" t="s">
         <v>31</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71">
         <v>99.86</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71">
         <v>85.2</v>
       </c>
     </row>
@@ -1544,10 +1546,10 @@
       <c r="B72" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72">
         <v>110.82</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72">
         <v>109.08</v>
       </c>
     </row>
@@ -1558,10 +1560,10 @@
       <c r="B73" t="s">
         <v>31</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73">
         <v>86.42</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73">
         <v>88.1</v>
       </c>
     </row>
@@ -1572,10 +1574,10 @@
       <c r="B74" t="s">
         <v>32</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74">
         <v>77.58</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74">
         <v>129.84</v>
       </c>
     </row>
@@ -1586,10 +1588,10 @@
       <c r="B75" t="s">
         <v>32</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75">
         <v>148.41999999999999</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75">
         <v>84.24</v>
       </c>
     </row>
@@ -1600,10 +1602,10 @@
       <c r="B76" t="s">
         <v>32</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76">
         <v>104.4</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76">
         <v>85.2</v>
       </c>
     </row>
@@ -1614,10 +1616,10 @@
       <c r="B77" t="s">
         <v>32</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77">
         <v>137.19999999999999</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77">
         <v>69</v>
       </c>
     </row>
@@ -1628,10 +1630,10 @@
       <c r="B78" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78">
         <v>69</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78">
         <v>137.19999999999999</v>
       </c>
     </row>
@@ -1642,10 +1644,10 @@
       <c r="B79" t="s">
         <v>32</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79">
         <v>98.06</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79">
         <v>75.16</v>
       </c>
     </row>
@@ -1656,10 +1658,10 @@
       <c r="B80" t="s">
         <v>32</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80">
         <v>84.24</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80">
         <v>148.41999999999999</v>
       </c>
     </row>
@@ -1670,10 +1672,10 @@
       <c r="B81" t="s">
         <v>32</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81">
         <v>119.56</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81">
         <v>80.58</v>
       </c>
     </row>
@@ -1684,10 +1686,10 @@
       <c r="B82" t="s">
         <v>32</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82">
         <v>75.16</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82">
         <v>98.06</v>
       </c>
     </row>
@@ -1698,10 +1700,10 @@
       <c r="B83" t="s">
         <v>32</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83">
         <v>85.2</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83">
         <v>104.4</v>
       </c>
     </row>
@@ -1712,10 +1714,10 @@
       <c r="B84" t="s">
         <v>32</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84">
         <v>129.84</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84">
         <v>77.58</v>
       </c>
     </row>
@@ -1726,10 +1728,10 @@
       <c r="B85" t="s">
         <v>32</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85">
         <v>80.58</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85">
         <v>119.56</v>
       </c>
     </row>
@@ -1740,10 +1742,10 @@
       <c r="B86" t="s">
         <v>33</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86">
         <v>100.2</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86">
         <v>119.22</v>
       </c>
     </row>
@@ -1754,10 +1756,10 @@
       <c r="B87" t="s">
         <v>33</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87">
         <v>119.22</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87">
         <v>100.2</v>
       </c>
     </row>
@@ -1768,10 +1770,10 @@
       <c r="B88" t="s">
         <v>33</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88">
         <v>130.58000000000001</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88">
         <v>116.9</v>
       </c>
     </row>
@@ -1782,10 +1784,10 @@
       <c r="B89" t="s">
         <v>33</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89">
         <v>158.36000000000001</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89">
         <v>96.96</v>
       </c>
     </row>
@@ -1796,10 +1798,10 @@
       <c r="B90" t="s">
         <v>33</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90">
         <v>109.06</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90">
         <v>101.48</v>
       </c>
     </row>
@@ -1810,10 +1812,10 @@
       <c r="B91" t="s">
         <v>33</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91">
         <v>113.66</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91">
         <v>99.34</v>
       </c>
     </row>
@@ -1824,10 +1826,10 @@
       <c r="B92" t="s">
         <v>33</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92">
         <v>96.96</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92">
         <v>158.36000000000001</v>
       </c>
     </row>
@@ -1838,10 +1840,10 @@
       <c r="B93" t="s">
         <v>33</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93">
         <v>99.34</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93">
         <v>113.66</v>
       </c>
     </row>
@@ -1852,10 +1854,10 @@
       <c r="B94" t="s">
         <v>33</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94">
         <v>111.42</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94">
         <v>99.7</v>
       </c>
     </row>
@@ -1866,10 +1868,10 @@
       <c r="B95" t="s">
         <v>33</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95">
         <v>99.7</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95">
         <v>111.42</v>
       </c>
     </row>
@@ -1880,10 +1882,10 @@
       <c r="B96" t="s">
         <v>33</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96">
         <v>116.9</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96">
         <v>130.58000000000001</v>
       </c>
     </row>
@@ -1894,10 +1896,10 @@
       <c r="B97" t="s">
         <v>33</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97">
         <v>101.48</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97">
         <v>109.06</v>
       </c>
     </row>
@@ -1908,10 +1910,10 @@
       <c r="B98" t="s">
         <v>36</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98">
         <v>61.08</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98">
         <v>139.12</v>
       </c>
     </row>
@@ -1922,10 +1924,10 @@
       <c r="B99" t="s">
         <v>36</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99">
         <v>130.02000000000001</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99">
         <v>94.62</v>
       </c>
     </row>
@@ -1936,10 +1938,10 @@
       <c r="B100" t="s">
         <v>36</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100">
         <v>94.62</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100">
         <v>130.02000000000001</v>
       </c>
     </row>
@@ -1950,10 +1952,10 @@
       <c r="B101" t="s">
         <v>36</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101">
         <v>139.12</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101">
         <v>61.08</v>
       </c>
     </row>
@@ -1964,10 +1966,10 @@
       <c r="B102" t="s">
         <v>36</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102">
         <v>88.46</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102">
         <v>64.900000000000006</v>
       </c>
     </row>
@@ -1978,10 +1980,10 @@
       <c r="B103" t="s">
         <v>36</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103">
         <v>83.98</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103">
         <v>91.8</v>
       </c>
     </row>
@@ -1992,10 +1994,10 @@
       <c r="B104" t="s">
         <v>36</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104">
         <v>92.02</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104">
         <v>98.88</v>
       </c>
     </row>
@@ -2006,10 +2008,10 @@
       <c r="B105" t="s">
         <v>36</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105">
         <v>64.900000000000006</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105">
         <v>88.46</v>
       </c>
     </row>
@@ -2020,10 +2022,10 @@
       <c r="B106" t="s">
         <v>36</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106">
         <v>98.54</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106">
         <v>102.14</v>
       </c>
     </row>
@@ -2034,10 +2036,10 @@
       <c r="B107" t="s">
         <v>36</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107">
         <v>91.8</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107">
         <v>83.98</v>
       </c>
     </row>
@@ -2048,10 +2050,10 @@
       <c r="B108" t="s">
         <v>36</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108">
         <v>102.14</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108">
         <v>98.54</v>
       </c>
     </row>
@@ -2062,10 +2064,10 @@
       <c r="B109" t="s">
         <v>36</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109">
         <v>98.88</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D109">
         <v>92.02</v>
       </c>
     </row>
@@ -2076,24 +2078,24 @@
       <c r="B110" t="s">
         <v>37</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110">
         <v>160.04</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110">
         <v>107.82</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B111" t="s">
         <v>37</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111">
         <v>105.58</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111">
         <v>127.52</v>
       </c>
     </row>
@@ -2104,10 +2106,10 @@
       <c r="B112" t="s">
         <v>37</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112">
         <v>110.9</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112">
         <v>87.78</v>
       </c>
     </row>
@@ -2118,10 +2120,10 @@
       <c r="B113" t="s">
         <v>37</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113">
         <v>87.78</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113">
         <v>110.9</v>
       </c>
     </row>
@@ -2132,10 +2134,10 @@
       <c r="B114" t="s">
         <v>37</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114">
         <v>94.46</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D114">
         <v>98.42</v>
       </c>
     </row>
@@ -2146,10 +2148,10 @@
       <c r="B115" t="s">
         <v>37</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115">
         <v>98.42</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D115">
         <v>94.46</v>
       </c>
     </row>
@@ -2160,10 +2162,10 @@
       <c r="B116" t="s">
         <v>37</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116">
         <v>103.36</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D116">
         <v>119.72</v>
       </c>
     </row>
@@ -2174,10 +2176,10 @@
       <c r="B117" t="s">
         <v>37</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117">
         <v>119.72</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D117">
         <v>103.36</v>
       </c>
     </row>
@@ -2188,10 +2190,10 @@
       <c r="B118" t="s">
         <v>37</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118">
         <v>127.52</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D118">
         <v>105.58</v>
       </c>
     </row>
@@ -2202,10 +2204,10 @@
       <c r="B119" t="s">
         <v>37</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119">
         <v>109.74</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D119">
         <v>101.78</v>
       </c>
     </row>
@@ -2216,10 +2218,10 @@
       <c r="B120" t="s">
         <v>37</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120">
         <v>101.78</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D120">
         <v>109.74</v>
       </c>
     </row>
@@ -2230,10 +2232,10 @@
       <c r="B121" t="s">
         <v>37</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121">
         <v>107.82</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D121">
         <v>160.04</v>
       </c>
     </row>
@@ -2244,24 +2246,24 @@
       <c r="B122" t="s">
         <v>39</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122">
         <v>123.12</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D122">
         <v>115.98</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B123" t="s">
         <v>39</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123">
         <v>112.34</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D123">
         <v>109.14</v>
       </c>
     </row>
@@ -2272,10 +2274,10 @@
       <c r="B124" t="s">
         <v>39</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124">
         <v>125.76</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D124">
         <v>65.66</v>
       </c>
     </row>
@@ -2286,10 +2288,10 @@
       <c r="B125" t="s">
         <v>39</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125">
         <v>96.9</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D125">
         <v>118</v>
       </c>
     </row>
@@ -2300,10 +2302,10 @@
       <c r="B126" t="s">
         <v>39</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126">
         <v>126.66</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D126">
         <v>67.3</v>
       </c>
     </row>
@@ -2314,10 +2316,10 @@
       <c r="B127" t="s">
         <v>39</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C127">
         <v>73.900000000000006</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D127">
         <v>94.2</v>
       </c>
     </row>
@@ -2328,268 +2330,235 @@
       <c r="B128" t="s">
         <v>39</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128">
         <v>67.3</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D128">
         <v>126.66</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>12</v>
       </c>
       <c r="B129" t="s">
         <v>39</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129">
         <v>115.98</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D129">
         <v>123.12</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>13</v>
       </c>
       <c r="B130" t="s">
         <v>39</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130">
         <v>118</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D130">
         <v>96.9</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>14</v>
       </c>
       <c r="B131" t="s">
         <v>39</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131">
         <v>109.14</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D131">
         <v>112.34</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>11</v>
       </c>
       <c r="B132" t="s">
         <v>39</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C132">
         <v>94.2</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D132">
         <v>73.900000000000006</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>10</v>
       </c>
       <c r="B133" t="s">
         <v>39</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133">
         <v>65.66</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D133">
         <v>125.76</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>17</v>
       </c>
       <c r="B134" t="s">
         <v>40</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134">
         <v>116.66</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D134">
         <v>138.34</v>
       </c>
-      <c r="E134" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B135" t="s">
         <v>40</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135">
         <v>138.28</v>
       </c>
-      <c r="D135" s="1">
+      <c r="D135">
         <v>104.68</v>
       </c>
-      <c r="E135" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>4</v>
       </c>
       <c r="B136" t="s">
         <v>40</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C136">
         <v>121.64</v>
       </c>
-      <c r="D136" s="1">
+      <c r="D136">
         <v>87.72</v>
       </c>
-      <c r="E136" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>34</v>
       </c>
       <c r="B137" t="s">
         <v>40</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C137">
         <v>107.76</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D137">
         <v>115.56</v>
       </c>
-      <c r="E137" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>15</v>
       </c>
       <c r="B138" t="s">
         <v>40</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C138">
         <v>138.34</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D138">
         <v>116.66</v>
       </c>
-      <c r="E138" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>16</v>
       </c>
       <c r="B139" t="s">
         <v>40</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C139">
         <v>116.9</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D139">
         <v>105.32</v>
       </c>
-      <c r="E139" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>18</v>
       </c>
       <c r="B140" t="s">
         <v>40</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140">
         <v>105.32</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D140">
         <v>116.9</v>
       </c>
-      <c r="E140" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>12</v>
       </c>
       <c r="B141" t="s">
         <v>40</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141">
         <v>87.72</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D141">
         <v>121.64</v>
       </c>
-      <c r="E141" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>13</v>
       </c>
       <c r="B142" t="s">
         <v>40</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142">
         <v>125.58</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D142">
         <v>83.08</v>
       </c>
-      <c r="E142" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>14</v>
       </c>
       <c r="B143" t="s">
         <v>40</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C143">
         <v>115.56</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D143">
         <v>107.76</v>
       </c>
-      <c r="E143" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>11</v>
       </c>
       <c r="B144" t="s">
         <v>40</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C144">
         <v>104.68</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D144">
         <v>138.28</v>
-      </c>
-      <c r="E144" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -2599,18 +2568,216 @@
       <c r="B145" t="s">
         <v>40</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C145">
         <v>83.08</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D145">
         <v>125.58</v>
       </c>
-      <c r="E145" t="s">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>17</v>
+      </c>
+      <c r="B146" t="s">
+        <v>41</v>
+      </c>
+      <c r="C146">
+        <v>103.66</v>
+      </c>
+      <c r="D146">
+        <v>115.1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B147" t="s">
+        <v>41</v>
+      </c>
+      <c r="C147">
+        <v>129.72</v>
+      </c>
+      <c r="D147">
+        <v>122.72</v>
+      </c>
+      <c r="E147" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" t="s">
+        <v>41</v>
+      </c>
+      <c r="C148">
+        <v>109.32</v>
+      </c>
+      <c r="D148">
+        <v>74.459999999999994</v>
+      </c>
+      <c r="E148" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>34</v>
+      </c>
+      <c r="B149" t="s">
+        <v>41</v>
+      </c>
+      <c r="C149">
+        <v>129.94</v>
+      </c>
+      <c r="D149">
+        <v>96.38</v>
+      </c>
+      <c r="E149" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>15</v>
+      </c>
+      <c r="B150" t="s">
+        <v>41</v>
+      </c>
+      <c r="C150">
+        <v>74.459999999999994</v>
+      </c>
+      <c r="D150">
+        <v>109.32</v>
+      </c>
+      <c r="E150" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>16</v>
+      </c>
+      <c r="B151" t="s">
+        <v>41</v>
+      </c>
+      <c r="C151">
+        <v>122.72</v>
+      </c>
+      <c r="D151">
+        <v>129.72</v>
+      </c>
+      <c r="E151" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>18</v>
+      </c>
+      <c r="B152" t="s">
+        <v>41</v>
+      </c>
+      <c r="C152">
+        <v>115.1</v>
+      </c>
+      <c r="D152">
+        <v>103.66</v>
+      </c>
+      <c r="E152" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" t="s">
+        <v>41</v>
+      </c>
+      <c r="C153">
+        <v>115.7</v>
+      </c>
+      <c r="D153">
+        <v>114.08</v>
+      </c>
+      <c r="E153" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" t="s">
+        <v>41</v>
+      </c>
+      <c r="C154">
+        <v>114.08</v>
+      </c>
+      <c r="D154">
+        <v>115.7</v>
+      </c>
+      <c r="E154" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155" t="s">
+        <v>41</v>
+      </c>
+      <c r="C155">
+        <v>140.68</v>
+      </c>
+      <c r="D155">
+        <v>82.14</v>
+      </c>
+      <c r="E155" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>11</v>
+      </c>
+      <c r="B156" t="s">
+        <v>41</v>
+      </c>
+      <c r="C156">
+        <v>96.38</v>
+      </c>
+      <c r="D156">
+        <v>129.94</v>
+      </c>
+      <c r="E156" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>10</v>
+      </c>
+      <c r="B157" t="s">
+        <v>41</v>
+      </c>
+      <c r="C157">
+        <v>82.14</v>
+      </c>
+      <c r="D157">
+        <v>140.68</v>
+      </c>
+      <c r="E157" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{657FD601-2028-0A4F-BA12-553C96356FC4}">

--- a/FFL_Data.xlsx
+++ b/FFL_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelrade\Downloads\FFL-Dash-2023-main\FFL-Dash-2023-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78546A5-4999-4181-8C9D-7184E57BC800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFF54EC-58B8-45D2-9048-4135536E0256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="210" windowWidth="21600" windowHeight="15225" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
   </bookViews>
   <sheets>
     <sheet name="2023 Results" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="43">
   <si>
     <t>Points Against</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
 </sst>
 </file>
@@ -527,11 +530,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FD601-2028-0A4F-BA12-553C96356FC4}">
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F132" sqref="F132"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G151" sqref="G151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2588,9 +2591,6 @@
       <c r="D146">
         <v>115.1</v>
       </c>
-      <c r="E146" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
@@ -2605,9 +2605,6 @@
       <c r="D147">
         <v>122.72</v>
       </c>
-      <c r="E147" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
@@ -2622,9 +2619,6 @@
       <c r="D148">
         <v>74.459999999999994</v>
       </c>
-      <c r="E148" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
@@ -2639,9 +2633,6 @@
       <c r="D149">
         <v>96.38</v>
       </c>
-      <c r="E149" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
@@ -2656,9 +2647,6 @@
       <c r="D150">
         <v>109.32</v>
       </c>
-      <c r="E150" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
@@ -2673,9 +2661,6 @@
       <c r="D151">
         <v>129.72</v>
       </c>
-      <c r="E151" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
@@ -2690,9 +2675,6 @@
       <c r="D152">
         <v>103.66</v>
       </c>
-      <c r="E152" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
@@ -2707,9 +2689,6 @@
       <c r="D153">
         <v>114.08</v>
       </c>
-      <c r="E153" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
@@ -2724,9 +2703,6 @@
       <c r="D154">
         <v>115.7</v>
       </c>
-      <c r="E154" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
@@ -2741,9 +2717,6 @@
       <c r="D155">
         <v>82.14</v>
       </c>
-      <c r="E155" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
@@ -2758,9 +2731,6 @@
       <c r="D156">
         <v>129.94</v>
       </c>
-      <c r="E156" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
@@ -2775,7 +2745,208 @@
       <c r="D157">
         <v>140.68</v>
       </c>
-      <c r="E157" t="s">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>17</v>
+      </c>
+      <c r="B158" t="s">
+        <v>42</v>
+      </c>
+      <c r="C158">
+        <v>114.22</v>
+      </c>
+      <c r="D158">
+        <v>108.88</v>
+      </c>
+      <c r="E158" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B159" t="s">
+        <v>42</v>
+      </c>
+      <c r="C159">
+        <v>101.22</v>
+      </c>
+      <c r="D159">
+        <v>147.91999999999999</v>
+      </c>
+      <c r="E159" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" t="s">
+        <v>42</v>
+      </c>
+      <c r="C160">
+        <v>97.5</v>
+      </c>
+      <c r="D160">
+        <v>82</v>
+      </c>
+      <c r="E160" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>34</v>
+      </c>
+      <c r="B161" t="s">
+        <v>42</v>
+      </c>
+      <c r="C161">
+        <v>147.91999999999999</v>
+      </c>
+      <c r="D161">
+        <v>101.22</v>
+      </c>
+      <c r="E161" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>15</v>
+      </c>
+      <c r="B162" t="s">
+        <v>42</v>
+      </c>
+      <c r="C162">
+        <v>106.44</v>
+      </c>
+      <c r="D162">
+        <v>81.94</v>
+      </c>
+      <c r="E162" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>16</v>
+      </c>
+      <c r="B163" t="s">
+        <v>42</v>
+      </c>
+      <c r="C163">
+        <v>108.88</v>
+      </c>
+      <c r="D163">
+        <v>114.22</v>
+      </c>
+      <c r="E163" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>18</v>
+      </c>
+      <c r="B164" t="s">
+        <v>42</v>
+      </c>
+      <c r="C164">
+        <v>82</v>
+      </c>
+      <c r="D164">
+        <v>97.5</v>
+      </c>
+      <c r="E164" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" t="s">
+        <v>42</v>
+      </c>
+      <c r="C165">
+        <v>94.04</v>
+      </c>
+      <c r="D165">
+        <v>89.34</v>
+      </c>
+      <c r="E165" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166" t="s">
+        <v>42</v>
+      </c>
+      <c r="C166">
+        <v>81.94</v>
+      </c>
+      <c r="D166">
+        <v>106.44</v>
+      </c>
+      <c r="E166" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>14</v>
+      </c>
+      <c r="B167" t="s">
+        <v>42</v>
+      </c>
+      <c r="C167">
+        <v>89.34</v>
+      </c>
+      <c r="D167">
+        <v>94.04</v>
+      </c>
+      <c r="E167" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>11</v>
+      </c>
+      <c r="B168" t="s">
+        <v>42</v>
+      </c>
+      <c r="C168">
+        <v>105.32</v>
+      </c>
+      <c r="D168">
+        <v>122.14</v>
+      </c>
+      <c r="E168" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>10</v>
+      </c>
+      <c r="B169" t="s">
+        <v>42</v>
+      </c>
+      <c r="C169">
+        <v>122.14</v>
+      </c>
+      <c r="D169">
+        <v>105.32</v>
+      </c>
+      <c r="E169" t="s">
         <v>29</v>
       </c>
     </row>
